--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9026E-9CB6-D047-BAE8-896895A6C951}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FEA9026E-9CB6-D047-BAE8-896895A6C951}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="16220" windowWidth="25600" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="MacroLibrary" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="MacroLibrary" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -22,7 +22,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1467,13 +1467,23 @@
   </si>
   <si>
     <t>should be skipped</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1534,8 +1544,311 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,8 +1861,467 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1572,94 +2344,1084 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="70">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="14" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="20" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="23" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="32" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="35" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="38" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="41" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="47" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="50" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="68" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="74" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="77" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1689,10 +3451,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1727,7 +3489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1762,7 +3524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1856,21 +3618,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1887,7 +3649,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1939,24 +3701,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +3801,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>362</v>
       </c>
@@ -2122,7 +3884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -2199,7 +3961,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2270,7 +4032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +4097,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2394,7 +4156,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +4212,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2503,7 +4265,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -2547,7 +4309,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2585,7 +4347,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -2620,7 +4382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2652,7 +4414,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -2684,7 +4446,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +4478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -2742,7 +4504,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2765,7 +4527,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -2785,7 +4547,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -2802,7 +4564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -2813,13 +4575,13 @@
         <v>287</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>348</v>
       </c>
@@ -2830,13 +4592,13 @@
         <v>288</v>
       </c>
       <c r="J20" t="s">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>386</v>
       </c>
@@ -2847,13 +4609,13 @@
         <v>289</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2864,13 +4626,13 @@
         <v>290</v>
       </c>
       <c r="J22" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2881,13 +4643,13 @@
         <v>281</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2898,13 +4660,13 @@
         <v>270</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2914,11 +4676,14 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -2932,12 +4697,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
         <v>257</v>
@@ -2946,9 +4711,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="F28" t="s">
         <v>274</v>
@@ -2957,9 +4722,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="F29" t="s">
         <v>275</v>
@@ -2968,9 +4733,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>208</v>
@@ -2979,9 +4744,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>266</v>
@@ -2990,9 +4755,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>276</v>
@@ -3001,9 +4766,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>251</v>
@@ -3012,9 +4777,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>321</v>
@@ -3023,9 +4788,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>298</v>
@@ -3034,7 +4799,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="36">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" t="s">
         <v>252</v>
       </c>
@@ -3042,7 +4810,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="37">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" t="s">
         <v>299</v>
       </c>
@@ -3050,7 +4821,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
         <v>258</v>
       </c>
@@ -3058,7 +4829,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>70</v>
       </c>
@@ -3066,7 +4837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>204</v>
       </c>
@@ -3074,7 +4845,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>280</v>
       </c>
@@ -3082,7 +4853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>291</v>
       </c>
@@ -3090,7 +4861,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>292</v>
       </c>
@@ -3098,7 +4869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>334</v>
       </c>
@@ -3106,7 +4877,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>333</v>
       </c>
@@ -3114,7 +4885,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>203</v>
       </c>
@@ -3122,7 +4893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>311</v>
       </c>
@@ -3130,7 +4901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>330</v>
       </c>
@@ -3138,7 +4909,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>359</v>
       </c>
@@ -3146,7 +4917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>293</v>
       </c>
@@ -3154,7 +4925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>347</v>
       </c>
@@ -3162,7 +4933,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>322</v>
       </c>
@@ -3170,7 +4941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>259</v>
       </c>
@@ -3178,7 +4949,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>283</v>
       </c>
@@ -3186,7 +4957,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>284</v>
       </c>
@@ -3194,7 +4965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>285</v>
       </c>
@@ -3202,7 +4973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>294</v>
       </c>
@@ -3210,7 +4981,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>303</v>
       </c>
@@ -3218,7 +4989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>328</v>
       </c>
@@ -3226,7 +4997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>300</v>
       </c>
@@ -3234,7 +5005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>301</v>
       </c>
@@ -3242,7 +5013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>360</v>
       </c>
@@ -3250,7 +5021,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>361</v>
       </c>
@@ -3258,7 +5029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>336</v>
       </c>
@@ -3266,7 +5037,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>304</v>
       </c>
@@ -3274,7 +5045,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>260</v>
       </c>
@@ -3282,7 +5053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>344</v>
       </c>
@@ -3290,7 +5061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>305</v>
       </c>
@@ -3298,7 +5069,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>399</v>
       </c>
@@ -3306,7 +5077,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>295</v>
       </c>
@@ -3314,7 +5085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>400</v>
       </c>
@@ -3322,7 +5093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>253</v>
       </c>
@@ -3330,7 +5101,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>335</v>
       </c>
@@ -3338,7 +5109,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="74" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>271</v>
       </c>
@@ -3346,7 +5117,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>277</v>
       </c>
@@ -3354,7 +5125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>282</v>
       </c>
@@ -3362,7 +5133,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>418</v>
       </c>
@@ -3370,7 +5141,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>323</v>
       </c>
@@ -3378,7 +5149,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>261</v>
       </c>
@@ -3386,7 +5157,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>272</v>
       </c>
@@ -3394,7 +5165,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>278</v>
       </c>
@@ -3402,7 +5173,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>267</v>
       </c>
@@ -3410,7 +5181,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>262</v>
       </c>
@@ -3418,7 +5189,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>279</v>
       </c>
@@ -3426,7 +5197,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>263</v>
       </c>
@@ -3434,7 +5205,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>264</v>
       </c>
@@ -3442,7 +5213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>296</v>
       </c>
@@ -3450,7 +5221,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>302</v>
       </c>
@@ -3458,7 +5229,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>286</v>
       </c>
@@ -3466,7 +5237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>331</v>
       </c>
@@ -3474,7 +5245,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>268</v>
       </c>
@@ -3482,7 +5253,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>269</v>
       </c>
@@ -3490,170 +5261,170 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="V93" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="V94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="V95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="V96" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="V97" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="V98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="V99" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="V100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="V101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="V102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="V103" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="V104" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="V105" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="V106" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="V107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="V108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="V109" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="V110" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="111" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="V111" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="V112" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="V113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="V114" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="V115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="V116" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="V117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="V118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="V119" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B8" pane="bottomLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="20.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="42.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="19.1640625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>246</v>
       </c>
@@ -3689,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>457</v>
       </c>
@@ -3713,7 +5484,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11" t="s">
@@ -3735,7 +5506,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>467</v>
@@ -3762,7 +5533,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11" t="s">
@@ -3784,7 +5555,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>463</v>
       </c>
@@ -3810,7 +5581,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>467</v>
@@ -3834,7 +5605,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
@@ -3848,7 +5619,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
@@ -3862,7 +5633,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -3876,7 +5647,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -3890,7 +5661,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -3904,7 +5675,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -3918,7 +5689,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -3932,7 +5703,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -3946,7 +5717,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -3960,7 +5731,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -3974,7 +5745,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -3988,7 +5759,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -4002,7 +5773,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -4016,7 +5787,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -4030,7 +5801,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4044,7 +5815,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4058,7 +5829,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
@@ -4072,7 +5843,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4086,7 +5857,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -4100,7 +5871,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4114,7 +5885,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4128,7 +5899,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4142,7 +5913,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4156,7 +5927,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4170,7 +5941,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4184,7 +5955,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4198,7 +5969,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4212,7 +5983,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4226,7 +5997,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4240,7 +6011,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4254,7 +6025,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4268,7 +6039,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4282,7 +6053,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4296,7 +6067,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4310,7 +6081,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4324,7 +6095,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4338,7 +6109,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4352,7 +6123,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4366,7 +6137,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4380,7 +6151,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4394,7 +6165,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4408,7 +6179,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4422,7 +6193,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4436,7 +6207,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4450,7 +6221,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4464,7 +6235,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4478,7 +6249,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4492,7 +6263,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4506,7 +6277,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4520,7 +6291,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4534,7 +6305,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4548,7 +6319,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4562,7 +6333,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4576,7 +6347,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4590,7 +6361,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4604,7 +6375,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4618,7 +6389,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4632,7 +6403,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4646,7 +6417,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4660,7 +6431,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4674,7 +6445,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4688,7 +6459,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4702,7 +6473,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4716,7 +6487,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4730,7 +6501,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4744,7 +6515,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4758,7 +6529,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4772,7 +6543,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -4786,7 +6557,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -4800,7 +6571,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -4814,7 +6585,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -4828,7 +6599,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -4842,7 +6613,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -4856,7 +6627,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -4870,7 +6641,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -4884,7 +6655,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -4898,7 +6669,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -4912,7 +6683,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -4926,7 +6697,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -4940,7 +6711,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -4954,7 +6725,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -4968,7 +6739,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -4982,7 +6753,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -4996,7 +6767,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5010,7 +6781,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5024,7 +6795,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5038,7 +6809,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5052,7 +6823,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5066,7 +6837,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5080,7 +6851,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5094,7 +6865,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5108,7 +6879,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5122,7 +6893,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5136,7 +6907,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5150,7 +6921,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5164,7 +6935,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5178,7 +6949,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5192,7 +6963,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5206,7 +6977,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5220,7 +6991,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5234,7 +7005,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5248,7 +7019,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5262,7 +7033,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5276,7 +7047,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5290,7 +7061,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5304,7 +7075,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5318,7 +7089,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5332,7 +7103,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5346,7 +7117,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5360,7 +7131,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5374,7 +7145,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5388,7 +7159,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5402,7 +7173,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5416,7 +7187,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5430,7 +7201,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5444,7 +7215,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5458,7 +7229,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5472,7 +7243,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5486,7 +7257,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5500,7 +7271,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5514,7 +7285,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5528,7 +7299,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5542,7 +7313,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5556,7 +7327,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5570,7 +7341,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5584,7 +7355,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5598,7 +7369,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5612,7 +7383,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5626,7 +7397,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5640,7 +7411,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5654,7 +7425,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5668,7 +7439,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5682,7 +7453,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5696,7 +7467,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5710,7 +7481,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5724,7 +7495,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5738,7 +7509,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5752,7 +7523,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5766,7 +7537,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -5780,7 +7551,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -5794,7 +7565,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -5808,7 +7579,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -5822,7 +7593,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -5836,7 +7607,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -5850,7 +7621,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -5864,7 +7635,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -5878,7 +7649,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -5892,7 +7663,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -5906,7 +7677,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -5920,7 +7691,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -5934,7 +7705,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -5948,7 +7719,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -5962,7 +7733,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -5976,7 +7747,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -5990,7 +7761,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6004,7 +7775,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6018,7 +7789,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6032,7 +7803,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6046,7 +7817,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6060,7 +7831,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6074,7 +7845,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6088,7 +7859,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6102,7 +7873,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6116,7 +7887,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6130,7 +7901,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6144,7 +7915,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6158,7 +7929,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6172,7 +7943,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6186,7 +7957,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6200,7 +7971,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6214,7 +7985,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6228,7 +7999,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6242,7 +8013,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6256,7 +8027,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6270,7 +8041,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6284,7 +8055,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6298,7 +8069,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6312,7 +8083,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6326,7 +8097,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6340,7 +8111,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6354,7 +8125,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6368,7 +8139,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6382,7 +8153,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6396,7 +8167,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6410,7 +8181,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6424,7 +8195,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6438,7 +8209,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6452,7 +8223,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6466,7 +8237,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6480,7 +8251,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6494,7 +8265,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6508,7 +8279,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6522,7 +8293,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6536,7 +8307,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="19"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6550,7 +8321,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6564,7 +8335,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="19"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6578,7 +8349,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6592,7 +8363,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="19"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6606,7 +8377,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6620,7 +8391,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6634,7 +8405,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6648,7 +8419,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6662,7 +8433,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6676,7 +8447,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="19"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6690,7 +8461,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="19"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6704,7 +8475,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6718,7 +8489,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="19"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6732,7 +8503,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="19"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6746,7 +8517,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6760,7 +8531,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="19"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6774,7 +8545,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="19"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -6788,7 +8559,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="19"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -6802,7 +8573,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -6816,7 +8587,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -6830,7 +8601,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="19"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -6844,7 +8615,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -6858,7 +8629,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="19"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -6872,7 +8643,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="19"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -6886,7 +8657,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="19"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -6900,7 +8671,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -6914,7 +8685,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="19"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -6928,7 +8699,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="19"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -6942,7 +8713,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -6956,7 +8727,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="19"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -6970,7 +8741,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="19"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -6984,7 +8755,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="19"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -6998,7 +8769,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="19"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -7012,7 +8783,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="19"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -7026,7 +8797,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="19"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -7040,7 +8811,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="19"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -7054,7 +8825,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="19"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7068,7 +8839,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="19"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7082,7 +8853,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="19"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7096,7 +8867,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="19"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7110,7 +8881,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="19"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7124,7 +8895,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7138,7 +8909,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7152,7 +8923,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7166,7 +8937,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7180,7 +8951,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7194,7 +8965,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7208,7 +8979,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7222,7 +8993,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7236,7 +9007,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7250,7 +9021,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7264,7 +9035,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7278,7 +9049,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7292,7 +9063,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7306,7 +9077,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7320,7 +9091,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7334,7 +9105,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7348,7 +9119,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7362,7 +9133,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7376,7 +9147,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7390,7 +9161,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7404,7 +9175,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7418,7 +9189,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7432,7 +9203,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="19"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7446,7 +9217,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7460,7 +9231,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7474,7 +9245,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7488,7 +9259,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7502,7 +9273,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7516,7 +9287,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7530,7 +9301,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7544,7 +9315,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7558,7 +9329,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7572,7 +9343,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7586,7 +9357,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7600,7 +9371,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7614,7 +9385,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7628,7 +9399,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7642,7 +9413,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7656,7 +9427,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7670,7 +9441,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7684,7 +9455,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7698,7 +9469,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7712,7 +9483,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7726,7 +9497,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7740,7 +9511,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7754,7 +9525,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7768,7 +9539,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -7782,7 +9553,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -7796,7 +9567,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -7810,7 +9581,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -7824,7 +9595,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -7838,7 +9609,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -7852,7 +9623,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -7866,7 +9637,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -7880,7 +9651,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -7894,7 +9665,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -7908,7 +9679,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -7922,7 +9693,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -7936,7 +9707,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -7950,7 +9721,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -7964,7 +9735,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -7978,7 +9749,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -7992,7 +9763,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -8006,7 +9777,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -8020,7 +9791,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -8034,7 +9805,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -8048,7 +9819,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8062,7 +9833,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8076,7 +9847,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8090,7 +9861,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8104,7 +9875,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8118,7 +9889,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8132,7 +9903,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8146,7 +9917,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8160,7 +9931,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8174,7 +9945,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8188,7 +9959,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8202,7 +9973,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8216,7 +9987,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8230,7 +10001,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8244,7 +10015,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8258,7 +10029,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8272,7 +10043,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8286,7 +10057,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8300,7 +10071,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8314,7 +10085,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8328,7 +10099,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8342,7 +10113,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8356,7 +10127,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8370,7 +10141,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8384,7 +10155,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8398,7 +10169,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8412,7 +10183,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8426,7 +10197,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8440,7 +10211,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8454,7 +10225,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8468,7 +10239,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8482,7 +10253,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8496,7 +10267,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8510,7 +10281,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8524,7 +10295,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8538,7 +10309,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8552,7 +10323,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8566,7 +10337,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="19"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8580,7 +10351,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="19"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8594,7 +10365,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="19"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8608,7 +10379,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="19"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8622,7 +10393,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="19"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8636,7 +10407,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="19"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8650,7 +10421,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="19"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8664,7 +10435,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="19"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8678,7 +10449,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="19"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8692,7 +10463,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="19"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8706,7 +10477,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="19"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8720,7 +10491,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="19"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8734,7 +10505,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="19"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8748,7 +10519,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="19"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8762,7 +10533,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="19"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8776,7 +10547,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="19"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -8790,7 +10561,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -8804,7 +10575,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="19"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -8818,7 +10589,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="19"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -8832,7 +10603,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="19"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -8846,7 +10617,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="19"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -8860,7 +10631,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="19"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -8874,7 +10645,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="19"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -8888,7 +10659,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="19"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -8902,7 +10673,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="19"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -8916,7 +10687,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="19"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -8930,7 +10701,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="19"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -8944,7 +10715,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="19"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -8958,7 +10729,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="19"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -8972,7 +10743,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="19"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -8986,7 +10757,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="19"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -9000,7 +10771,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="19"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -9014,7 +10785,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="19"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -9028,7 +10799,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="19"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -9042,7 +10813,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="19"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -9056,7 +10827,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="19"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9070,7 +10841,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="19"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9084,7 +10855,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="19"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9098,7 +10869,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="19"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9112,7 +10883,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="19"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9126,7 +10897,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="19"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9140,7 +10911,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="19"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9154,7 +10925,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="19"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9168,7 +10939,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="19"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9182,7 +10953,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="19"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9196,7 +10967,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="19"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9210,7 +10981,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="19"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9224,7 +10995,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="19"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9238,7 +11009,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="19"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9252,7 +11023,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="19"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9266,7 +11037,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="19"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9280,7 +11051,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="19"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9294,7 +11065,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="19"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9308,7 +11079,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="19"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9322,7 +11093,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="19"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9336,7 +11107,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="19"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9350,7 +11121,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="19"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9364,7 +11135,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="19"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9378,7 +11149,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="19"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9392,7 +11163,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="19"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9406,7 +11177,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="19"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9420,7 +11191,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="19"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9434,7 +11205,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="19"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9448,7 +11219,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="19"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9462,7 +11233,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="19"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9476,7 +11247,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="19"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9490,7 +11261,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="19"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9504,7 +11275,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="19"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9518,7 +11289,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="19"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9532,7 +11303,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="19"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9546,7 +11317,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="19"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9560,7 +11331,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="19"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9574,7 +11345,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="19"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9588,7 +11359,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="19"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9602,7 +11373,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="19"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9616,7 +11387,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="19"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9630,7 +11401,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="19"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9644,7 +11415,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="19"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9658,7 +11429,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="19"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9672,7 +11443,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="19"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9686,7 +11457,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="19"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9700,7 +11471,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="19"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9714,7 +11485,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="19"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9728,7 +11499,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="19"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9742,7 +11513,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="19"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9756,7 +11527,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="19"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9770,7 +11541,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="19"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -9784,7 +11555,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="19"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -9798,7 +11569,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="19"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -9812,7 +11583,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="19"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -9826,7 +11597,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="19"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -9840,7 +11611,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="19"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -9854,7 +11625,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="19"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -9868,7 +11639,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="19"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -9882,7 +11653,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="19"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -9896,7 +11667,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="19"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -9910,7 +11681,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="19"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -9924,7 +11695,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="19"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -9938,7 +11709,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="19"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -9952,7 +11723,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="19"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -9966,7 +11737,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="19"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -9980,7 +11751,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="19"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -9994,7 +11765,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="19"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -10008,7 +11779,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="19"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -10022,7 +11793,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="19"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -10036,7 +11807,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="19"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -10050,7 +11821,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="19"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10064,7 +11835,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="19"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10078,7 +11849,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="19"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10092,7 +11863,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="19"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10106,7 +11877,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="19"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10120,7 +11891,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="19"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10134,7 +11905,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="19"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10148,7 +11919,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="19"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10162,7 +11933,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="19"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10176,7 +11947,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="19"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10190,7 +11961,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="19"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10204,7 +11975,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="19"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10218,7 +11989,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="19"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10232,7 +12003,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="19"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10246,7 +12017,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="19"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10260,7 +12031,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="19"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10274,7 +12045,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="19"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10288,7 +12059,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="19"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10302,7 +12073,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="19"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10316,7 +12087,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="19"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10330,7 +12101,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="19"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10344,7 +12115,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="19"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10358,7 +12129,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="19"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10372,7 +12143,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="19"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10386,7 +12157,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="19"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10400,7 +12171,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="19"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10414,7 +12185,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="19"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10428,7 +12199,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="19"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10442,7 +12213,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="19"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10456,7 +12227,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="19"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10470,7 +12241,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="19"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10484,7 +12255,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="19"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10498,7 +12269,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="19"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10512,7 +12283,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="19"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10526,7 +12297,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="19"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10540,7 +12311,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="19"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10554,7 +12325,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="19"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10568,7 +12339,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="19"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10582,7 +12353,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="19"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10596,7 +12367,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="19"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10610,7 +12381,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="19"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10624,7 +12395,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="19"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10638,7 +12409,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="19"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10652,7 +12423,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="19"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10666,7 +12437,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="19"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10680,7 +12451,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="19"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10694,7 +12465,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="19"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10708,7 +12479,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="19"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10722,7 +12493,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="19"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10736,7 +12507,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="19"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10750,7 +12521,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="19"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10764,7 +12535,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="19"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -10778,7 +12549,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="19"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -10792,7 +12563,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="19"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -10806,7 +12577,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="19"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -10820,7 +12591,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="19"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -10834,7 +12605,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="19"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -10848,7 +12619,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="19"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -10862,7 +12633,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="19"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -10876,7 +12647,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="19"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -10890,7 +12661,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="19"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -10904,7 +12675,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="19"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -10918,7 +12689,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="19"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -10932,7 +12703,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="19"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -10946,7 +12717,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="19"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -10960,7 +12731,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="19"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -10974,7 +12745,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="19"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -10988,7 +12759,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="19"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -11002,7 +12773,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="19"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -11016,7 +12787,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="19"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -11030,7 +12801,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="19"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -11044,7 +12815,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="19"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11058,7 +12829,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="19"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11072,7 +12843,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="19"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11086,7 +12857,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="19"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11100,7 +12871,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="19"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11114,7 +12885,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="19"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11128,7 +12899,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="19"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11142,7 +12913,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="19"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11156,7 +12927,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="19"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11170,7 +12941,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="19"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11184,7 +12955,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="19"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11198,7 +12969,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="19"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11212,7 +12983,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="19"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11226,7 +12997,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="19"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11240,7 +13011,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="19"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11254,7 +13025,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="19"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11268,7 +13039,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="19"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11282,7 +13053,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="19"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11296,7 +13067,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="19"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11310,7 +13081,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="19"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11324,7 +13095,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="19"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11338,7 +13109,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="19"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11352,7 +13123,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="19"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11366,7 +13137,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="19"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11380,7 +13151,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="19"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11394,7 +13165,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="19"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11408,7 +13179,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="19"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11422,7 +13193,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="19"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11436,7 +13207,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="19"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11450,7 +13221,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="19"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11464,7 +13235,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="19"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11478,7 +13249,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="19"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11492,7 +13263,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="19"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11506,7 +13277,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="19"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11520,7 +13291,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="19"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11534,7 +13305,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="19"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11548,7 +13319,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="19"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11562,7 +13333,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="19"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11576,7 +13347,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="19"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11590,7 +13361,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="19"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11604,7 +13375,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="19"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11618,7 +13389,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="19"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11632,7 +13403,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="19"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11646,7 +13417,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="19"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11660,7 +13431,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="19"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11674,7 +13445,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="19"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11688,7 +13459,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="19"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11702,7 +13473,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="19"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11716,7 +13487,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="19"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11730,7 +13501,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="19"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11744,7 +13515,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="19"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11758,7 +13529,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="19"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11772,7 +13543,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="19"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -11786,7 +13557,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="19"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -11800,7 +13571,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="19"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -11814,7 +13585,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="19"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -11828,7 +13599,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="19"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -11842,7 +13613,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="19"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -11856,7 +13627,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="19"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -11870,7 +13641,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="19"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -11884,7 +13655,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="19"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -11898,7 +13669,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="19"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -11912,7 +13683,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="19"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -11926,7 +13697,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="19"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -11940,7 +13711,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="19"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -11954,7 +13725,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="19"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -11968,7 +13739,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="19"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -11982,7 +13753,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="19"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -11996,7 +13767,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="19"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -12010,7 +13781,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="19"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -12024,7 +13795,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="19"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -12038,7 +13809,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="19"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -12052,7 +13823,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="19"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12066,7 +13837,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="19"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12080,7 +13851,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="19"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12094,7 +13865,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="19"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12108,7 +13879,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="19"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12122,7 +13893,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="19"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12136,7 +13907,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="19"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12150,7 +13921,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="19"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12164,7 +13935,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="19"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12178,7 +13949,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="19"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12192,7 +13963,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="19"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12206,7 +13977,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="19"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12220,7 +13991,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="19"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12234,7 +14005,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="19"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12248,7 +14019,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="19"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12262,7 +14033,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="19"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12276,7 +14047,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="19"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12290,7 +14061,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="19"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12304,7 +14075,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="19"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12318,7 +14089,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="19"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12332,7 +14103,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="19"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12346,7 +14117,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="19"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12360,7 +14131,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="19"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12374,7 +14145,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="19"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12388,7 +14159,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="19"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12402,7 +14173,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="19"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12416,7 +14187,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="19"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12430,7 +14201,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="19"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12444,7 +14215,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="19"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12458,7 +14229,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="19"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12472,7 +14243,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="19"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12486,7 +14257,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="19"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12500,7 +14271,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="19"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12514,7 +14285,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="19"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12528,7 +14299,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="19"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12542,7 +14313,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="19"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12556,7 +14327,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="19"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12570,7 +14341,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="19"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12584,7 +14355,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="19"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12598,7 +14369,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="19"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12612,7 +14383,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="19"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12626,7 +14397,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="19"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12640,7 +14411,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="19"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12654,7 +14425,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="19"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12668,7 +14439,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="19"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12682,7 +14453,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="19"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12696,7 +14467,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="19"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12710,7 +14481,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="19"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12724,7 +14495,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="19"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12738,7 +14509,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="19"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12752,369 +14523,369 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D694" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D694" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C696" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C696" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -24,7 +24,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1847,8 +1853,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="84">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2320,8 +2528,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -3190,13 +3704,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3366,52 +4444,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="59" borderId="65" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="62" borderId="69" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="65" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="68" borderId="73" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="68" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="74" borderId="77" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="74" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="77" borderId="81" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="77" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="80" borderId="85" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="95" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="101" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="104" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4364,7 +5538,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="N11" t="s">
         <v>85</v>
@@ -4399,7 +5573,7 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -4431,7 +5605,7 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>471</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
@@ -4463,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>87</v>
@@ -4491,6 +5665,9 @@
       <c r="J15" t="s">
         <v>452</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
@@ -4516,6 +5693,9 @@
       </c>
       <c r="J16" t="s">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
         <v>243</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -38,12 +38,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1482,6 +1482,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2055,8 +2064,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2834,8 +2944,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="142">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -4268,13 +4531,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4540,52 +5085,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="122" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="128" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="131" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4883,7 +5476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5480,7 +6073,7 @@
         <v>181</v>
       </c>
       <c r="AA9" t="s">
-        <v>226</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10">
@@ -5518,7 +6111,7 @@
         <v>182</v>
       </c>
       <c r="AA10" t="s">
-        <v>227</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
@@ -5553,7 +6146,7 @@
         <v>250</v>
       </c>
       <c r="AA11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -5587,6 +6180,9 @@
       <c r="Y12" t="s">
         <v>183</v>
       </c>
+      <c r="AA12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5619,6 +6215,9 @@
       <c r="Y13" t="s">
         <v>184</v>
       </c>
+      <c r="AA13" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6206,7 +6805,7 @@
         <v>361</v>
       </c>
       <c r="V63" t="s">
-        <v>206</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
@@ -6214,7 +6813,7 @@
         <v>336</v>
       </c>
       <c r="V64" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -6222,7 +6821,7 @@
         <v>304</v>
       </c>
       <c r="V65" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66">
@@ -6230,7 +6829,7 @@
         <v>260</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67">
@@ -6238,7 +6837,7 @@
         <v>344</v>
       </c>
       <c r="V67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -6246,7 +6845,7 @@
         <v>305</v>
       </c>
       <c r="V68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -6254,7 +6853,7 @@
         <v>399</v>
       </c>
       <c r="V69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -6262,7 +6861,7 @@
         <v>295</v>
       </c>
       <c r="V70" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -6270,7 +6869,7 @@
         <v>400</v>
       </c>
       <c r="V71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -6278,7 +6877,7 @@
         <v>253</v>
       </c>
       <c r="V72" t="s">
-        <v>442</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -6286,7 +6885,7 @@
         <v>335</v>
       </c>
       <c r="V73" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74">
@@ -6294,7 +6893,7 @@
         <v>271</v>
       </c>
       <c r="V74" t="s">
-        <v>135</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75">
@@ -6302,7 +6901,7 @@
         <v>277</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -6310,7 +6909,7 @@
         <v>282</v>
       </c>
       <c r="V76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -6318,7 +6917,7 @@
         <v>418</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -6326,7 +6925,7 @@
         <v>323</v>
       </c>
       <c r="V78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -6334,7 +6933,7 @@
         <v>261</v>
       </c>
       <c r="V79" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -6342,7 +6941,7 @@
         <v>272</v>
       </c>
       <c r="V80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81">
@@ -6350,7 +6949,7 @@
         <v>278</v>
       </c>
       <c r="V81" t="s">
-        <v>443</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
@@ -6358,7 +6957,7 @@
         <v>267</v>
       </c>
       <c r="V82" t="s">
-        <v>193</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
@@ -6366,7 +6965,7 @@
         <v>262</v>
       </c>
       <c r="V83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -6374,7 +6973,7 @@
         <v>279</v>
       </c>
       <c r="V84" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -6382,7 +6981,7 @@
         <v>263</v>
       </c>
       <c r="V85" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6390,7 +6989,7 @@
         <v>264</v>
       </c>
       <c r="V86" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -6398,7 +6997,7 @@
         <v>296</v>
       </c>
       <c r="V87" t="s">
-        <v>431</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -6406,7 +7005,7 @@
         <v>302</v>
       </c>
       <c r="V88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89">
@@ -6414,7 +7013,7 @@
         <v>286</v>
       </c>
       <c r="V89" t="s">
-        <v>196</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90">
@@ -6422,7 +7021,7 @@
         <v>331</v>
       </c>
       <c r="V90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -6430,7 +7029,7 @@
         <v>268</v>
       </c>
       <c r="V91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -6438,141 +7037,146 @@
         <v>269</v>
       </c>
       <c r="V92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>374</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>433</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>155</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -20,30 +20,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -1491,6 +1492,27 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2165,8 +2187,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="165">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3097,8 +3220,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="170">
+  <borders count="198">
     <border>
       <left/>
       <right/>
@@ -4813,13 +5089,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5133,52 +5691,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="140" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="143" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="146" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="149" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="155" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="158" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="176" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="182" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="185" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5476,7 +6082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5523,48 +6129,51 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
         <v>188</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>385</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>402</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>348</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>386</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>403</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5606,48 +6215,51 @@
         <v>424</v>
       </c>
       <c r="M2" t="s">
+        <v>478</v>
+      </c>
+      <c r="N2" t="s">
         <v>406</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>419</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>244</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>387</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>408</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>409</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>372</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>396</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>163</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>168</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>421</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5674,7 +6286,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
         <v>340</v>
@@ -5688,43 +6300,46 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>479</v>
+      </c>
+      <c r="O3" t="s">
         <v>420</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>231</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>388</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>410</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>373</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>164</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>169</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>355</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5747,6 +6362,9 @@
       <c r="G4" t="s">
         <v>440</v>
       </c>
+      <c r="H4" t="s">
+        <v>477</v>
+      </c>
       <c r="I4" t="s">
         <v>341</v>
       </c>
@@ -5759,43 +6377,46 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>480</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>232</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>389</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>411</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>349</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>345</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>165</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>170</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>176</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>413</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5827,40 +6448,40 @@
       <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>233</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>390</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>412</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>350</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>346</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>166</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>414</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5889,37 +6510,37 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>234</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>382</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>391</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>352</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>434</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>178</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>415</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5945,37 +6566,37 @@
       <c r="L7" t="s">
         <v>306</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>235</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>407</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>392</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>351</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>435</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>173</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>416</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6001,34 +6622,34 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>393</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>353</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>180</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>417</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6054,25 +6675,25 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>237</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>394</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>354</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>201</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>181</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6095,22 +6716,22 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>426</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>238</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>395</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>248</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>182</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6133,19 +6754,19 @@
       <c r="L11" t="s">
         <v>472</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>239</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6168,25 +6789,25 @@
       <c r="L12" t="s">
         <v>425</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>240</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>183</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>332</v>
@@ -6203,25 +6824,25 @@
       <c r="L13" t="s">
         <v>471</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>245</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>317</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -6238,22 +6859,22 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>241</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -6267,22 +6888,22 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>242</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>376</v>
@@ -6296,19 +6917,19 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>243</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>377</v>
@@ -6319,16 +6940,16 @@
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D18" t="s">
         <v>404</v>
@@ -6339,13 +6960,13 @@
       <c r="J18" t="s">
         <v>371</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -6356,13 +6977,13 @@
       <c r="J19" t="s">
         <v>470</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -6373,13 +6994,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -6390,13 +7011,13 @@
       <c r="J21" t="s">
         <v>383</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
         <v>312</v>
@@ -6407,13 +7028,13 @@
       <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -6424,13 +7045,13 @@
       <c r="J23" t="s">
         <v>423</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>438</v>
@@ -6441,13 +7062,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>216</v>
@@ -6458,13 +7079,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>217</v>
@@ -6472,13 +7093,13 @@
       <c r="F26" t="s">
         <v>273</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>403</v>
       </c>
       <c r="D27" t="s">
         <v>468</v>
@@ -6486,18 +7107,21 @@
       <c r="F27" t="s">
         <v>257</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
       <c r="D28" t="s">
         <v>469</v>
       </c>
       <c r="F28" t="s">
         <v>274</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6508,7 +7132,7 @@
       <c r="F29" t="s">
         <v>275</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6519,7 +7143,7 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6530,7 +7154,7 @@
       <c r="F31" t="s">
         <v>266</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6541,7 +7165,7 @@
       <c r="F32" t="s">
         <v>276</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6552,7 +7176,7 @@
       <c r="F33" t="s">
         <v>251</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6563,7 +7187,7 @@
       <c r="F34" t="s">
         <v>321</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6574,7 +7198,7 @@
       <c r="F35" t="s">
         <v>298</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6585,7 +7209,7 @@
       <c r="F36" t="s">
         <v>252</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6596,7 +7220,7 @@
       <c r="F37" t="s">
         <v>299</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6604,7 +7228,7 @@
       <c r="F38" t="s">
         <v>258</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6612,7 +7236,7 @@
       <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6620,7 +7244,7 @@
       <c r="F40" t="s">
         <v>204</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6628,7 +7252,7 @@
       <c r="F41" t="s">
         <v>280</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6636,7 +7260,7 @@
       <c r="F42" t="s">
         <v>291</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6644,7 +7268,7 @@
       <c r="F43" t="s">
         <v>292</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6652,7 +7276,7 @@
       <c r="F44" t="s">
         <v>334</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6660,7 +7284,7 @@
       <c r="F45" t="s">
         <v>333</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6668,7 +7292,7 @@
       <c r="F46" t="s">
         <v>203</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6676,7 +7300,7 @@
       <c r="F47" t="s">
         <v>311</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6684,7 +7308,7 @@
       <c r="F48" t="s">
         <v>330</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6692,7 +7316,7 @@
       <c r="F49" t="s">
         <v>359</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6700,7 +7324,7 @@
       <c r="F50" t="s">
         <v>293</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6708,475 +7332,485 @@
       <c r="F51" t="s">
         <v>347</v>
       </c>
-      <c r="V51" t="s">
-        <v>453</v>
+      <c r="W51" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>322</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>259</v>
       </c>
-      <c r="V53" t="s">
-        <v>337</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>283</v>
       </c>
-      <c r="V54" t="s">
-        <v>454</v>
+      <c r="W54" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>284</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>285</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>294</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>303</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>328</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>300</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>301</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>360</v>
       </c>
-      <c r="V62" t="s">
-        <v>429</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>361</v>
       </c>
-      <c r="V63" t="s">
-        <v>473</v>
+      <c r="W63" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>336</v>
       </c>
-      <c r="V64" t="s">
-        <v>206</v>
+      <c r="W64" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>304</v>
       </c>
-      <c r="V65" t="s">
-        <v>380</v>
+      <c r="W65" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>260</v>
       </c>
-      <c r="V66" t="s">
-        <v>430</v>
+      <c r="W66" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>344</v>
       </c>
-      <c r="V67" t="s">
-        <v>131</v>
+      <c r="W67" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>305</v>
       </c>
-      <c r="V68" t="s">
-        <v>132</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>399</v>
       </c>
-      <c r="V69" t="s">
-        <v>133</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>295</v>
       </c>
-      <c r="V70" t="s">
-        <v>134</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>400</v>
       </c>
-      <c r="V71" t="s">
-        <v>189</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>253</v>
       </c>
-      <c r="V72" t="s">
-        <v>190</v>
+      <c r="W72" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>335</v>
       </c>
-      <c r="V73" t="s">
-        <v>442</v>
+      <c r="W73" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>271</v>
       </c>
-      <c r="V74" t="s">
-        <v>455</v>
+      <c r="W74" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>277</v>
       </c>
-      <c r="V75" t="s">
-        <v>135</v>
+      <c r="W75" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>282</v>
       </c>
-      <c r="V76" t="s">
-        <v>136</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>418</v>
       </c>
-      <c r="V77" t="s">
-        <v>137</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>323</v>
       </c>
-      <c r="V78" t="s">
-        <v>138</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>261</v>
       </c>
-      <c r="V79" t="s">
-        <v>139</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>272</v>
       </c>
-      <c r="V80" t="s">
-        <v>191</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>278</v>
       </c>
-      <c r="V81" t="s">
-        <v>192</v>
+      <c r="W81" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>267</v>
       </c>
-      <c r="V82" t="s">
-        <v>443</v>
+      <c r="W82" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>262</v>
       </c>
-      <c r="V83" t="s">
-        <v>193</v>
+      <c r="W83" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>279</v>
       </c>
-      <c r="V84" t="s">
-        <v>194</v>
+      <c r="W84" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>263</v>
       </c>
-      <c r="V85" t="s">
-        <v>207</v>
+      <c r="W85" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>264</v>
       </c>
-      <c r="V86" t="s">
-        <v>140</v>
+      <c r="W86" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>296</v>
       </c>
-      <c r="V87" t="s">
-        <v>195</v>
+      <c r="W87" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>302</v>
       </c>
-      <c r="V88" t="s">
-        <v>431</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>286</v>
       </c>
-      <c r="V89" t="s">
-        <v>432</v>
+      <c r="W89" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>331</v>
       </c>
-      <c r="V90" t="s">
-        <v>196</v>
+      <c r="W90" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>268</v>
       </c>
-      <c r="V91" t="s">
-        <v>197</v>
+      <c r="W91" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>269</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>162</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE8B059-CDF1-CC4E-BE59-3BFD1C94FF0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4FE8B059-CDF1-CC4E-BE59-3BFD1C94FF0E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="16220" windowWidth="25600" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="MacroLibrary" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="MacroLibrary" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1516,13 +1516,17 @@
   </si>
   <si>
     <t>sample macro to test out the skipping of test steps in macros</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1583,8 +1587,109 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,8 +1702,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1621,94 +1879,424 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="38">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1738,10 +2326,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1776,7 +2364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1811,7 +2399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1905,21 +2493,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1936,7 +2524,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1988,24 +2576,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>361</v>
       </c>
@@ -2177,7 +2765,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -2257,7 +2845,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2922,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2399,7 +2987,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +3046,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +3102,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +3155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -2611,7 +3199,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2649,7 +3237,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>323</v>
       </c>
@@ -2684,7 +3272,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +3307,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -2754,7 +3342,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -2786,7 +3374,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2815,7 +3403,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -2841,7 +3429,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +3449,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>384</v>
       </c>
@@ -2878,7 +3466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>400</v>
       </c>
@@ -2895,7 +3483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>401</v>
       </c>
@@ -2912,7 +3500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>347</v>
       </c>
@@ -2926,10 +3514,10 @@
         <v>382</v>
       </c>
       <c r="W21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>385</v>
       </c>
@@ -2946,7 +3534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +3551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2980,7 +3568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2997,7 +3585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3011,7 +3599,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>402</v>
       </c>
@@ -3025,7 +3613,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -3039,7 +3627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
         <v>404</v>
       </c>
@@ -3050,7 +3638,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
         <v>55</v>
       </c>
@@ -3061,7 +3649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>56</v>
       </c>
@@ -3072,7 +3660,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
         <v>57</v>
       </c>
@@ -3083,7 +3671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -3105,7 +3693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
         <v>60</v>
       </c>
@@ -3116,7 +3704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>61</v>
       </c>
@@ -3127,7 +3715,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="D37" t="s">
         <v>62</v>
       </c>
@@ -3138,7 +3726,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
         <v>257</v>
       </c>
@@ -3146,7 +3734,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>69</v>
       </c>
@@ -3154,7 +3742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>203</v>
       </c>
@@ -3162,7 +3750,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>279</v>
       </c>
@@ -3170,7 +3758,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>290</v>
       </c>
@@ -3178,7 +3766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>291</v>
       </c>
@@ -3186,7 +3774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>333</v>
       </c>
@@ -3194,7 +3782,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>332</v>
       </c>
@@ -3202,7 +3790,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>202</v>
       </c>
@@ -3210,7 +3798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>310</v>
       </c>
@@ -3218,7 +3806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>329</v>
       </c>
@@ -3226,7 +3814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>358</v>
       </c>
@@ -3234,7 +3822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>292</v>
       </c>
@@ -3242,7 +3830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>346</v>
       </c>
@@ -3250,7 +3838,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>321</v>
       </c>
@@ -3258,7 +3846,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>258</v>
       </c>
@@ -3266,7 +3854,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>282</v>
       </c>
@@ -3274,7 +3862,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>283</v>
       </c>
@@ -3282,7 +3870,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>284</v>
       </c>
@@ -3290,7 +3878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>293</v>
       </c>
@@ -3298,7 +3886,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>302</v>
       </c>
@@ -3306,7 +3894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>327</v>
       </c>
@@ -3314,7 +3902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>299</v>
       </c>
@@ -3322,7 +3910,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>300</v>
       </c>
@@ -3330,7 +3918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>359</v>
       </c>
@@ -3338,7 +3926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>360</v>
       </c>
@@ -3346,7 +3934,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>335</v>
       </c>
@@ -3354,7 +3942,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>303</v>
       </c>
@@ -3362,7 +3950,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>259</v>
       </c>
@@ -3370,7 +3958,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>343</v>
       </c>
@@ -3378,7 +3966,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>304</v>
       </c>
@@ -3386,7 +3974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>398</v>
       </c>
@@ -3394,7 +3982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>294</v>
       </c>
@@ -3402,7 +3990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>399</v>
       </c>
@@ -3410,7 +3998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>252</v>
       </c>
@@ -3418,7 +4006,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>334</v>
       </c>
@@ -3426,7 +4014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>270</v>
       </c>
@@ -3434,7 +4022,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>276</v>
       </c>
@@ -3442,7 +4030,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>281</v>
       </c>
@@ -3450,7 +4038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>417</v>
       </c>
@@ -3458,7 +4046,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>322</v>
       </c>
@@ -3466,7 +4054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>260</v>
       </c>
@@ -3474,7 +4062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>271</v>
       </c>
@@ -3482,7 +4070,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>277</v>
       </c>
@@ -3490,7 +4078,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>266</v>
       </c>
@@ -3498,7 +4086,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>261</v>
       </c>
@@ -3506,7 +4094,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>278</v>
       </c>
@@ -3514,7 +4102,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="85" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>262</v>
       </c>
@@ -3522,7 +4110,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>263</v>
       </c>
@@ -3530,7 +4118,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>295</v>
       </c>
@@ -3538,7 +4126,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>301</v>
       </c>
@@ -3546,7 +4134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>285</v>
       </c>
@@ -3554,7 +4142,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>330</v>
       </c>
@@ -3562,7 +4150,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>267</v>
       </c>
@@ -3570,7 +4158,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="92" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>268</v>
       </c>
@@ -3578,185 +4166,185 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="W93" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="W94" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="W95" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="W96" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="W97" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="W98" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="W99" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="W100" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="W101" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="W102" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="W103" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="W104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="W105" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="W106" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="W107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="W108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="W109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="W110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="W111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="W112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="W113" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="W114" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="W115" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="W116" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="W117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="W118" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="W119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="W120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="W121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="W122" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="B5" pane="bottomLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="20" width="10.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="52.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="27.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="19.1640625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="1" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>245</v>
       </c>
@@ -3792,7 +4380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>456</v>
       </c>
@@ -3814,7 +4402,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11" t="s">
@@ -3836,7 +4424,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="4"/>
       <c r="C4" s="11" t="s">
@@ -3858,7 +4446,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>466</v>
@@ -3885,7 +4473,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11" t="s">
@@ -3907,7 +4495,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>462</v>
       </c>
@@ -3929,7 +4517,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>466</v>
@@ -3953,7 +4541,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>466</v>
@@ -3977,7 +4565,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -3991,7 +4579,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -4005,7 +4593,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -4019,7 +4607,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -4033,7 +4621,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -4047,7 +4635,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -4061,7 +4649,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -4075,7 +4663,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -4089,7 +4677,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -4103,7 +4691,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -4117,7 +4705,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -4131,7 +4719,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -4145,7 +4733,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4159,7 +4747,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4173,7 +4761,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -4187,7 +4775,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4201,7 +4789,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
@@ -4215,7 +4803,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4229,7 +4817,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4243,7 +4831,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4257,7 +4845,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4271,7 +4859,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4285,7 +4873,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4299,7 +4887,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4313,7 +4901,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4327,7 +4915,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4341,7 +4929,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4355,7 +4943,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4369,7 +4957,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4383,7 +4971,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4397,7 +4985,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4411,7 +4999,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4425,7 +5013,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4439,7 +5027,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4453,7 +5041,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4467,7 +5055,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4481,7 +5069,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4495,7 +5083,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4509,7 +5097,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4523,7 +5111,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4537,7 +5125,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4551,7 +5139,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4565,7 +5153,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4579,7 +5167,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4593,7 +5181,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4607,7 +5195,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4621,7 +5209,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4635,7 +5223,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4649,7 +5237,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4663,7 +5251,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4677,7 +5265,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4691,7 +5279,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -4705,7 +5293,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -4719,7 +5307,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -4733,7 +5321,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -4747,7 +5335,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -4761,7 +5349,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -4775,7 +5363,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -4789,7 +5377,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -4803,7 +5391,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -4817,7 +5405,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -4831,7 +5419,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -4845,7 +5433,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -4859,7 +5447,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -4873,7 +5461,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -4887,7 +5475,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -4901,7 +5489,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -4915,7 +5503,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -4929,7 +5517,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -4943,7 +5531,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -4957,7 +5545,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -4971,7 +5559,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -4985,7 +5573,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -4999,7 +5587,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5013,7 +5601,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5027,7 +5615,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5041,7 +5629,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5055,7 +5643,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5069,7 +5657,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5083,7 +5671,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5097,7 +5685,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5111,7 +5699,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5125,7 +5713,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5139,7 +5727,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5153,7 +5741,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5167,7 +5755,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5181,7 +5769,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5195,7 +5783,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5209,7 +5797,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5223,7 +5811,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5237,7 +5825,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5251,7 +5839,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5265,7 +5853,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5279,7 +5867,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5293,7 +5881,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5307,7 +5895,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5321,7 +5909,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5335,7 +5923,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5349,7 +5937,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5363,7 +5951,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5377,7 +5965,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5391,7 +5979,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5405,7 +5993,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5419,7 +6007,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5433,7 +6021,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5447,7 +6035,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5461,7 +6049,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5475,7 +6063,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5489,7 +6077,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5503,7 +6091,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5517,7 +6105,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5531,7 +6119,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5545,7 +6133,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5559,7 +6147,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5573,7 +6161,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5587,7 +6175,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5601,7 +6189,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5615,7 +6203,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5629,7 +6217,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5643,7 +6231,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5657,7 +6245,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5671,7 +6259,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5685,7 +6273,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -5699,7 +6287,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -5713,7 +6301,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -5727,7 +6315,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -5741,7 +6329,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -5755,7 +6343,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -5769,7 +6357,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -5783,7 +6371,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -5797,7 +6385,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -5811,7 +6399,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -5825,7 +6413,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -5839,7 +6427,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -5853,7 +6441,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -5867,7 +6455,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -5881,7 +6469,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -5895,7 +6483,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -5909,7 +6497,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -5923,7 +6511,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -5937,7 +6525,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -5951,7 +6539,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -5965,7 +6553,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -5979,7 +6567,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -5993,7 +6581,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6007,7 +6595,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6021,7 +6609,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6035,7 +6623,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6049,7 +6637,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6063,7 +6651,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -6077,7 +6665,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -6091,7 +6679,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -6105,7 +6693,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6119,7 +6707,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6133,7 +6721,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6147,7 +6735,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6161,7 +6749,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6175,7 +6763,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6189,7 +6777,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6203,7 +6791,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6217,7 +6805,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6231,7 +6819,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6245,7 +6833,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6259,7 +6847,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6273,7 +6861,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6287,7 +6875,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6301,7 +6889,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6315,7 +6903,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6329,7 +6917,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6343,7 +6931,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6357,7 +6945,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6371,7 +6959,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6385,7 +6973,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6399,7 +6987,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6413,7 +7001,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6427,7 +7015,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6441,7 +7029,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6455,7 +7043,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6469,7 +7057,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6483,7 +7071,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6497,7 +7085,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6511,7 +7099,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6525,7 +7113,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6539,7 +7127,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6553,7 +7141,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6567,7 +7155,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6581,7 +7169,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6595,7 +7183,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6609,7 +7197,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6623,7 +7211,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6637,7 +7225,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6651,7 +7239,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="19"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -6665,7 +7253,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="19"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -6679,7 +7267,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="19"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -6693,7 +7281,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -6707,7 +7295,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="19"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -6721,7 +7309,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -6735,7 +7323,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -6749,7 +7337,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -6763,7 +7351,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="19"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -6777,7 +7365,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -6791,7 +7379,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="19"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -6805,7 +7393,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="19"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -6819,7 +7407,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="19"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -6833,7 +7421,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="19"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -6847,7 +7435,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="19"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -6861,7 +7449,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="19"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -6875,7 +7463,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="19"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -6889,7 +7477,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="19"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -6903,7 +7491,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="19"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -6917,7 +7505,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="19"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -6931,7 +7519,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="19"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -6945,7 +7533,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="19"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -6959,7 +7547,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="19"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -6973,7 +7561,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="19"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -6987,7 +7575,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="19"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -7001,7 +7589,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="19"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -7015,7 +7603,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="19"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -7029,7 +7617,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="19"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -7043,7 +7631,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="19"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -7057,7 +7645,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="19"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -7071,7 +7659,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="19"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -7085,7 +7673,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="19"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -7099,7 +7687,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="19"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -7113,7 +7701,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="19"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -7127,7 +7715,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="19"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -7141,7 +7729,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="19"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -7155,7 +7743,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="19"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -7169,7 +7757,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="19"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7183,7 +7771,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="19"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7197,7 +7785,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="19"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7211,7 +7799,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="19"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7225,7 +7813,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="19"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7239,7 +7827,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7253,7 +7841,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7267,7 +7855,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7281,7 +7869,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7295,7 +7883,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7309,7 +7897,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7323,7 +7911,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7337,7 +7925,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7351,7 +7939,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7365,7 +7953,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7379,7 +7967,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7393,7 +7981,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7407,7 +7995,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7421,7 +8009,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7435,7 +8023,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7449,7 +8037,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7463,7 +8051,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7477,7 +8065,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7491,7 +8079,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -7505,7 +8093,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -7519,7 +8107,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -7533,7 +8121,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -7547,7 +8135,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="19"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -7561,7 +8149,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -7575,7 +8163,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -7589,7 +8177,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -7603,7 +8191,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -7617,7 +8205,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -7631,7 +8219,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -7645,7 +8233,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -7659,7 +8247,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -7673,7 +8261,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -7687,7 +8275,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -7701,7 +8289,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -7715,7 +8303,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -7729,7 +8317,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -7743,7 +8331,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -7757,7 +8345,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -7771,7 +8359,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -7785,7 +8373,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -7799,7 +8387,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -7813,7 +8401,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -7827,7 +8415,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -7841,7 +8429,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -7855,7 +8443,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -7869,7 +8457,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -7883,7 +8471,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -7897,7 +8485,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -7911,7 +8499,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -7925,7 +8513,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -7939,7 +8527,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -7953,7 +8541,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -7967,7 +8555,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -7981,7 +8569,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -7995,7 +8583,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -8009,7 +8597,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -8023,7 +8611,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -8037,7 +8625,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -8051,7 +8639,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -8065,7 +8653,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -8079,7 +8667,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -8093,7 +8681,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -8107,7 +8695,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -8121,7 +8709,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -8135,7 +8723,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -8149,7 +8737,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -8163,7 +8751,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8177,7 +8765,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8191,7 +8779,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8205,7 +8793,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8219,7 +8807,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8233,7 +8821,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8247,7 +8835,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8261,7 +8849,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8275,7 +8863,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8289,7 +8877,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8303,7 +8891,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8317,7 +8905,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8331,7 +8919,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8345,7 +8933,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8359,7 +8947,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8373,7 +8961,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8387,7 +8975,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8401,7 +8989,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8415,7 +9003,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8429,7 +9017,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8443,7 +9031,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8457,7 +9045,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8471,7 +9059,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8485,7 +9073,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -8499,7 +9087,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -8513,7 +9101,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -8527,7 +9115,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -8541,7 +9129,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -8555,7 +9143,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -8569,7 +9157,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -8583,7 +9171,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -8597,7 +9185,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -8611,7 +9199,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -8625,7 +9213,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -8639,7 +9227,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -8653,7 +9241,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -8667,7 +9255,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -8681,7 +9269,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="19"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -8695,7 +9283,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="19"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -8709,7 +9297,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="19"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -8723,7 +9311,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="19"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -8737,7 +9325,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="19"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -8751,7 +9339,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="19"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -8765,7 +9353,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="19"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -8779,7 +9367,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="19"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -8793,7 +9381,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="19"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -8807,7 +9395,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="19"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -8821,7 +9409,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="19"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -8835,7 +9423,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="19"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -8849,7 +9437,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="19"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -8863,7 +9451,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="19"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -8877,7 +9465,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="19"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -8891,7 +9479,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="19"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -8905,7 +9493,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="19"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -8919,7 +9507,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="19"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -8933,7 +9521,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="19"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -8947,7 +9535,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="19"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -8961,7 +9549,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="19"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -8975,7 +9563,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="19"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -8989,7 +9577,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="19"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -9003,7 +9591,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="19"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -9017,7 +9605,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="19"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -9031,7 +9619,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="19"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -9045,7 +9633,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="19"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -9059,7 +9647,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="19"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -9073,7 +9661,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="19"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -9087,7 +9675,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="19"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -9101,7 +9689,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="19"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -9115,7 +9703,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="19"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -9129,7 +9717,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="19"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -9143,7 +9731,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="19"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -9157,7 +9745,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="19"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -9171,7 +9759,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="19"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9185,7 +9773,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="19"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9199,7 +9787,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="19"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9213,7 +9801,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="19"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9227,7 +9815,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="19"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9241,7 +9829,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="19"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9255,7 +9843,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="19"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9269,7 +9857,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="19"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9283,7 +9871,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="19"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9297,7 +9885,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="19"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9311,7 +9899,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="19"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9325,7 +9913,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="19"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9339,7 +9927,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="19"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9353,7 +9941,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="19"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9367,7 +9955,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="19"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9381,7 +9969,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="19"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9395,7 +9983,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="19"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9409,7 +9997,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="19"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9423,7 +10011,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="19"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9437,7 +10025,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="19"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9451,7 +10039,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="19"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9465,7 +10053,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="19"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9479,7 +10067,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="19"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -9493,7 +10081,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="19"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -9507,7 +10095,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="19"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -9521,7 +10109,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="19"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -9535,7 +10123,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="19"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -9549,7 +10137,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="19"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -9563,7 +10151,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="19"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -9577,7 +10165,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="19"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -9591,7 +10179,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="19"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -9605,7 +10193,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="19"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -9619,7 +10207,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="19"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -9633,7 +10221,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="19"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -9647,7 +10235,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="19"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -9661,7 +10249,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="19"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -9675,7 +10263,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="19"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -9689,7 +10277,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="19"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -9703,7 +10291,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="19"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -9717,7 +10305,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="19"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -9731,7 +10319,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="19"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -9745,7 +10333,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="19"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -9759,7 +10347,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="19"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -9773,7 +10361,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="19"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -9787,7 +10375,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="19"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -9801,7 +10389,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="19"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -9815,7 +10403,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="19"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -9829,7 +10417,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="19"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -9843,7 +10431,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="19"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -9857,7 +10445,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="19"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -9871,7 +10459,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="19"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -9885,7 +10473,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="19"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -9899,7 +10487,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="19"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -9913,7 +10501,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="19"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -9927,7 +10515,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="19"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -9941,7 +10529,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="19"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -9955,7 +10543,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="19"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -9969,7 +10557,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="19"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -9983,7 +10571,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="19"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -9997,7 +10585,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="19"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -10011,7 +10599,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="19"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -10025,7 +10613,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="19"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -10039,7 +10627,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="19"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -10053,7 +10641,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="19"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -10067,7 +10655,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="19"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -10081,7 +10669,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="19"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -10095,7 +10683,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="19"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -10109,7 +10697,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="19"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -10123,7 +10711,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="19"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -10137,7 +10725,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="19"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -10151,7 +10739,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="19"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -10165,7 +10753,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="19"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10179,7 +10767,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="19"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10193,7 +10781,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="19"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10207,7 +10795,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="19"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10221,7 +10809,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="19"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10235,7 +10823,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="19"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10249,7 +10837,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="19"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10263,7 +10851,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="19"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10277,7 +10865,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="19"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10291,7 +10879,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="19"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10305,7 +10893,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="19"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10319,7 +10907,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="19"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10333,7 +10921,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="19"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10347,7 +10935,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="19"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10361,7 +10949,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="19"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10375,7 +10963,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="19"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10389,7 +10977,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="19"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10403,7 +10991,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="19"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10417,7 +11005,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="19"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10431,7 +11019,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="19"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10445,7 +11033,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="19"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10459,7 +11047,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="19"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10473,7 +11061,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="19"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10487,7 +11075,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="19"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -10501,7 +11089,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="19"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -10515,7 +11103,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="19"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -10529,7 +11117,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="19"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -10543,7 +11131,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="19"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -10557,7 +11145,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="19"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -10571,7 +11159,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="19"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -10585,7 +11173,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="19"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -10599,7 +11187,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="19"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -10613,7 +11201,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="19"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -10627,7 +11215,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="19"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -10641,7 +11229,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="19"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -10655,7 +11243,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="19"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -10669,7 +11257,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="19"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -10683,7 +11271,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="19"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -10697,7 +11285,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="19"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -10711,7 +11299,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="19"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -10725,7 +11313,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="19"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -10739,7 +11327,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="19"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -10753,7 +11341,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="19"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -10767,7 +11355,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="19"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -10781,7 +11369,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="19"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -10795,7 +11383,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="19"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -10809,7 +11397,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="19"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -10823,7 +11411,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="19"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -10837,7 +11425,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="19"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -10851,7 +11439,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="19"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -10865,7 +11453,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="19"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -10879,7 +11467,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="19"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -10893,7 +11481,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="19"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -10907,7 +11495,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="19"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -10921,7 +11509,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="19"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -10935,7 +11523,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="19"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -10949,7 +11537,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="19"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -10963,7 +11551,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="19"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -10977,7 +11565,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="19"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -10991,7 +11579,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="19"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -11005,7 +11593,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="19"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -11019,7 +11607,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="19"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -11033,7 +11621,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="19"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -11047,7 +11635,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="19"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -11061,7 +11649,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="19"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -11075,7 +11663,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="19"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -11089,7 +11677,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="19"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -11103,7 +11691,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="19"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -11117,7 +11705,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="19"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -11131,7 +11719,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="19"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -11145,7 +11733,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="19"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -11159,7 +11747,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="19"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11173,7 +11761,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="19"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11187,7 +11775,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="19"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11201,7 +11789,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="19"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11215,7 +11803,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="19"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11229,7 +11817,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="19"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11243,7 +11831,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="19"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11257,7 +11845,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="19"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11271,7 +11859,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="19"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11285,7 +11873,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="19"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11299,7 +11887,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="19"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11313,7 +11901,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="19"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11327,7 +11915,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="19"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11341,7 +11929,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="19"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11355,7 +11943,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="19"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11369,7 +11957,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="19"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11383,7 +11971,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="19"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11397,7 +11985,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="19"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11411,7 +11999,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="19"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11425,7 +12013,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="19"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11439,7 +12027,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="19"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11453,7 +12041,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="19"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11467,7 +12055,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="19"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11481,7 +12069,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="19"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -11495,7 +12083,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="19"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -11509,7 +12097,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="19"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -11523,7 +12111,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="19"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -11537,7 +12125,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="19"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -11551,7 +12139,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="19"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -11565,7 +12153,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="19"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -11579,7 +12167,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="19"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -11593,7 +12181,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="19"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -11607,7 +12195,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="19"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -11621,7 +12209,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="19"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -11635,7 +12223,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="19"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -11649,7 +12237,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="19"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -11663,7 +12251,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="19"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -11677,7 +12265,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="19"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -11691,7 +12279,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="19"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -11705,7 +12293,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="19"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -11719,7 +12307,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="19"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -11733,7 +12321,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="19"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -11747,7 +12335,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="19"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -11761,7 +12349,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="19"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -11775,7 +12363,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="19"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -11789,7 +12377,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="19"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -11803,7 +12391,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="19"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -11817,7 +12405,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="19"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -11831,7 +12419,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="19"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -11845,7 +12433,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="19"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -11859,7 +12447,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="19"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -11873,7 +12461,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="19"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -11887,7 +12475,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="19"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -11901,7 +12489,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="19"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -11915,7 +12503,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="19"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -11929,7 +12517,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="19"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -11943,7 +12531,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="19"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -11957,7 +12545,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="19"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -11971,7 +12559,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="19"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -11985,7 +12573,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="19"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -11999,7 +12587,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="19"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -12013,7 +12601,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="19"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -12027,7 +12615,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="19"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -12041,7 +12629,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="19"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -12055,7 +12643,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="19"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -12069,7 +12657,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="19"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -12083,7 +12671,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="19"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -12097,7 +12685,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="19"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -12111,7 +12699,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="19"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -12125,7 +12713,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="19"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -12139,7 +12727,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="19"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -12153,7 +12741,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="19"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -12167,7 +12755,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="19"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12181,7 +12769,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="19"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12195,7 +12783,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="19"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12209,7 +12797,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="19"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12223,7 +12811,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="19"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12237,7 +12825,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="19"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12251,7 +12839,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="19"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12265,7 +12853,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="19"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12279,7 +12867,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="19"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12293,7 +12881,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="19"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12307,7 +12895,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="19"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12321,7 +12909,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="19"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12335,7 +12923,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="19"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12349,7 +12937,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="19"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12363,7 +12951,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="19"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12377,7 +12965,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="19"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12391,7 +12979,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="19"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12405,7 +12993,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="19"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12419,7 +13007,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="19"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12433,7 +13021,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="19"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12447,7 +13035,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="19"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12461,7 +13049,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="19"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12475,7 +13063,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="19"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12489,7 +13077,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="19"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -12503,7 +13091,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="19"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -12517,7 +13105,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="19"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -12531,7 +13119,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="19"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -12545,7 +13133,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="19"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -12559,7 +13147,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="19"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -12573,7 +13161,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="19"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -12587,7 +13175,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="19"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -12601,7 +13189,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="19"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -12615,7 +13203,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="19"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -12629,7 +13217,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="19"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -12643,7 +13231,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="19"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -12657,7 +13245,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="19"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -12671,7 +13259,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="19"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -12685,7 +13273,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="19"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -12699,7 +13287,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="19"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -12713,7 +13301,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="19"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -12727,7 +13315,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="19"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -12741,7 +13329,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="19"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -12755,7 +13343,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="19"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -12769,7 +13357,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="19"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -12783,7 +13371,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="19"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -12797,7 +13385,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="19"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -12811,7 +13399,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="19"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -12825,7 +13413,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="19"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -12839,7 +13427,7 @@
       <c r="K642" s="2"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="19"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -12853,7 +13441,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="19"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -12867,7 +13455,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="19"/>
       <c r="B645" s="4"/>
       <c r="C645" s="11"/>
@@ -12881,7 +13469,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="13"/>
     </row>
-    <row r="646" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="19"/>
       <c r="B646" s="4"/>
       <c r="C646" s="11"/>
@@ -12895,369 +13483,369 @@
       <c r="K646" s="2"/>
       <c r="L646" s="13"/>
     </row>
-    <row r="647" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D696" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D696" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C698" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C698" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1526,7 +1526,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1688,8 +1688,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1855,8 +1956,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2161,13 +2415,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2241,52 +2777,100 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="11" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="12" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="14" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="20" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="23" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="26" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="50" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="53" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="53" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -14,37 +14,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1519,6 +1520,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1789,8 +1805,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2109,8 +2428,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -2697,13 +3475,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2825,52 +4449,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="32" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="35" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="38" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="45" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="41" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="47" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="53" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="50" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="53" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="53" borderId="57" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="53" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="59" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="69" fillId="62" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="65" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="68" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="74" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="77" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="80" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="86" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="89" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="92" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="101" fillId="95" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="101" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="104" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="107" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3168,7 +4936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -3188,78 +4956,81 @@
         <v>443</v>
       </c>
       <c r="D1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>323</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>245</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>187</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>384</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>400</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>401</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>385</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>402</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3274,78 +5045,81 @@
         <v>444</v>
       </c>
       <c r="D2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>438</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>449</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>305</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>374</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>423</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>477</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>405</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>418</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>208</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>386</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>407</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>371</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>395</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>88</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>162</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>167</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>174</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>420</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3360,1543 +5134,1555 @@
         <v>445</v>
       </c>
       <c r="D3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" t="s">
         <v>446</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>355</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>475</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>339</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>331</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>324</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>478</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>419</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>230</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>209</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>387</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>372</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>396</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>89</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>163</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>168</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>354</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
         <v>364</v>
       </c>
       <c r="D4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>377</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>439</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>476</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>340</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>228</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>325</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>479</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>210</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>388</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>348</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>397</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>344</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>175</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>412</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>365</v>
       </c>
       <c r="D5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E5" t="s">
         <v>447</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>421</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>326</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>448</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>341</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>450</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>232</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>211</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>389</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>411</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>349</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>345</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>165</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>176</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>413</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>366</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>378</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>436</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>338</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>233</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>381</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>351</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>90</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>433</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>171</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>414</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>214</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>356</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>435</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>305</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>234</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>406</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>391</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>350</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>91</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>434</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>172</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>178</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>415</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>368</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>308</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>357</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>318</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>82</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>235</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>392</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>352</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>92</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>166</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>179</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>369</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>296</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>319</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>83</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>236</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>393</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>353</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>200</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>180</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" t="s">
         <v>305</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>342</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>440</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>380</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>425</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>237</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>394</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>247</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>181</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>246</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>264</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>312</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>471</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>84</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>238</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>248</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>249</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" t="s">
         <v>309</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>253</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>313</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>424</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>33</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>239</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>182</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>331</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>306</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>314</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>470</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>85</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>244</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>316</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>183</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>254</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>86</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>240</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>94</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>255</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>451</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>87</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>241</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>95</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>375</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>307</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>35</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>242</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
         <v>376</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>96</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
         <v>403</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>370</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>286</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>469</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>287</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>36</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>288</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>382</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" t="s">
         <v>311</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>289</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>76</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>280</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>422</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>437</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>269</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>37</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>215</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>38</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>216</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>272</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>402</v>
-      </c>
-      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>467</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>256</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" t="s">
+        <v>468</v>
+      </c>
+      <c r="G28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>217</v>
       </c>
-      <c r="D28" t="s">
-        <v>468</v>
-      </c>
-      <c r="F28" t="s">
-        <v>273</v>
-      </c>
-      <c r="W28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>404</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>274</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>265</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>275</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>58</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>250</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>59</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>320</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>297</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>61</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>251</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>62</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>298</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>257</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>69</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>203</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>279</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>291</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>333</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>332</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>202</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>310</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>329</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>358</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>292</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>346</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>321</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>258</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>282</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>283</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>284</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>327</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>300</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>359</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>360</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>335</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>303</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>259</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>304</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>398</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>294</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>399</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>252</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>334</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>270</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>276</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>417</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>322</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>260</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>271</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>277</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>266</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>261</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>262</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>263</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>295</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>301</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>285</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>330</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>267</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>268</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -44,7 +44,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1535,6 +1535,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2108,8 +2123,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2887,8 +3003,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="142">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -4321,13 +4590,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4593,52 +5144,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="113" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="113" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="116" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="116" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="119" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="119" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="122" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="122" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="128" borderId="133" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="133" fillId="128" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="131" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="131" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="134" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="134" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5120,7 +5719,7 @@
         <v>420</v>
       </c>
       <c r="AC2" t="s">
-        <v>218</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3">
@@ -5203,7 +5802,7 @@
         <v>175</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -5283,7 +5882,7 @@
         <v>412</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -5351,7 +5950,7 @@
         <v>413</v>
       </c>
       <c r="AC5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -5410,7 +6009,7 @@
         <v>414</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -5466,7 +6065,7 @@
         <v>415</v>
       </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -5519,7 +6118,7 @@
         <v>416</v>
       </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -5563,7 +6162,7 @@
         <v>180</v>
       </c>
       <c r="AC9" t="s">
-        <v>473</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -5601,7 +6200,7 @@
         <v>181</v>
       </c>
       <c r="AC10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
@@ -5636,7 +6235,7 @@
         <v>249</v>
       </c>
       <c r="AC11" t="s">
-        <v>225</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
@@ -5671,7 +6270,7 @@
         <v>182</v>
       </c>
       <c r="AC12" t="s">
-        <v>226</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13">
@@ -5706,7 +6305,7 @@
         <v>183</v>
       </c>
       <c r="AC13" t="s">
-        <v>227</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
@@ -5740,6 +6339,9 @@
       <c r="AA14" t="s">
         <v>184</v>
       </c>
+      <c r="AC14" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -5769,6 +6371,9 @@
       <c r="AA15" t="s">
         <v>185</v>
       </c>
+      <c r="AC15" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5795,6 +6400,9 @@
       <c r="AA16" t="s">
         <v>186</v>
       </c>
+      <c r="AC16" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5815,6 +6423,9 @@
       <c r="AA17" t="s">
         <v>455</v>
       </c>
+      <c r="AC17" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5831,6 +6442,9 @@
       </c>
       <c r="X18" t="s">
         <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,12 +39,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1550,6 +1550,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1569,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2224,8 +2236,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="165">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3156,8 +3269,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="170">
+  <borders count="198">
     <border>
       <left/>
       <right/>
@@ -4872,13 +5138,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5192,52 +5740,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="140" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="140" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="143" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="143" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="146" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="146" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="149" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="149" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="155" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="155" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="158" borderId="165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="165" fillId="158" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="161" borderId="169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="161" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="176" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="182" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="185" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5535,7 +6131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -6305,7 +6901,7 @@
         <v>183</v>
       </c>
       <c r="AC13" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14">
@@ -6340,7 +6936,7 @@
         <v>184</v>
       </c>
       <c r="AC14" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15">
@@ -6372,7 +6968,7 @@
         <v>185</v>
       </c>
       <c r="AC15" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16">
@@ -6401,7 +6997,7 @@
         <v>186</v>
       </c>
       <c r="AC16" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -6424,7 +7020,7 @@
         <v>455</v>
       </c>
       <c r="AC17" t="s">
-        <v>226</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
@@ -6444,7 +7040,7 @@
         <v>97</v>
       </c>
       <c r="AC18" t="s">
-        <v>227</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19">
@@ -6463,6 +7059,9 @@
       <c r="X19" t="s">
         <v>98</v>
       </c>
+      <c r="AC19" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -6480,6 +7079,9 @@
       <c r="X20" t="s">
         <v>99</v>
       </c>
+      <c r="AC20" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -6497,6 +7099,9 @@
       <c r="X21" t="s">
         <v>484</v>
       </c>
+      <c r="AC21" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -7043,7 +7648,7 @@
         <v>260</v>
       </c>
       <c r="X79" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80">
@@ -7051,7 +7656,7 @@
         <v>271</v>
       </c>
       <c r="X80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
@@ -7059,7 +7664,7 @@
         <v>277</v>
       </c>
       <c r="X81" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -7067,7 +7672,7 @@
         <v>266</v>
       </c>
       <c r="X82" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
@@ -7075,7 +7680,7 @@
         <v>261</v>
       </c>
       <c r="X83" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84">
@@ -7083,7 +7688,7 @@
         <v>278</v>
       </c>
       <c r="X84" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85">
@@ -7091,7 +7696,7 @@
         <v>262</v>
       </c>
       <c r="X85" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86">
@@ -7099,7 +7704,7 @@
         <v>263</v>
       </c>
       <c r="X86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87">
@@ -7107,7 +7712,7 @@
         <v>295</v>
       </c>
       <c r="X87" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -7115,7 +7720,7 @@
         <v>301</v>
       </c>
       <c r="X88" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -7123,7 +7728,7 @@
         <v>285</v>
       </c>
       <c r="X89" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
@@ -7131,7 +7736,7 @@
         <v>330</v>
       </c>
       <c r="X90" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
@@ -7139,7 +7744,7 @@
         <v>267</v>
       </c>
       <c r="X91" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92">
@@ -7147,156 +7752,161 @@
         <v>268</v>
       </c>
       <c r="X92" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -30,7 +30,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1562,6 +1562,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1578,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="153" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2337,8 +2346,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="192">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3422,8 +3633,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="198">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -5420,13 +5937,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5788,52 +6869,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="167" borderId="177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="167" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="170" borderId="181" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="170" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="173" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="173" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="176" borderId="185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="176" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="182" borderId="189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="182" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="185" borderId="193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="185" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="188" borderId="197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="197" fillId="188" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="123" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="203" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="209" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="212" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="215" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="230" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="236" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="239" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6131,7 +7308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -6956,7 +8133,7 @@
         <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="Q15" t="s">
         <v>241</v>
@@ -6987,6 +8164,9 @@
       <c r="M16" t="s">
         <v>35</v>
       </c>
+      <c r="P16" t="s">
+        <v>500</v>
+      </c>
       <c r="Q16" t="s">
         <v>242</v>
       </c>
@@ -7014,7 +8194,7 @@
         <v>75</v>
       </c>
       <c r="X17" t="s">
-        <v>96</v>
+        <v>501</v>
       </c>
       <c r="AA17" t="s">
         <v>455</v>
@@ -7037,7 +8217,7 @@
         <v>370</v>
       </c>
       <c r="X18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC18" t="s">
         <v>498</v>
@@ -7057,7 +8237,7 @@
         <v>469</v>
       </c>
       <c r="X19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC19" t="s">
         <v>225</v>
@@ -7077,7 +8257,7 @@
         <v>36</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC20" t="s">
         <v>226</v>
@@ -7097,7 +8277,7 @@
         <v>382</v>
       </c>
       <c r="X21" t="s">
-        <v>484</v>
+        <v>99</v>
       </c>
       <c r="AC21" t="s">
         <v>227</v>
@@ -7117,7 +8297,7 @@
         <v>76</v>
       </c>
       <c r="X22" t="s">
-        <v>101</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23">
@@ -7134,7 +8314,7 @@
         <v>422</v>
       </c>
       <c r="X23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -7151,7 +8331,7 @@
         <v>37</v>
       </c>
       <c r="X24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -7168,7 +8348,7 @@
         <v>38</v>
       </c>
       <c r="X25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -7182,7 +8362,7 @@
         <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -7196,7 +8376,7 @@
         <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
@@ -7210,7 +8390,7 @@
         <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29">
@@ -7224,7 +8404,7 @@
         <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -7235,7 +8415,7 @@
         <v>207</v>
       </c>
       <c r="X30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -7246,7 +8426,7 @@
         <v>265</v>
       </c>
       <c r="X31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -7257,7 +8437,7 @@
         <v>275</v>
       </c>
       <c r="X32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -7268,7 +8448,7 @@
         <v>250</v>
       </c>
       <c r="X33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -7279,7 +8459,7 @@
         <v>320</v>
       </c>
       <c r="X34" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -7290,7 +8470,7 @@
         <v>297</v>
       </c>
       <c r="X35" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
@@ -7301,7 +8481,7 @@
         <v>251</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -7312,7 +8492,7 @@
         <v>298</v>
       </c>
       <c r="X37" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
@@ -7320,7 +8500,7 @@
         <v>257</v>
       </c>
       <c r="X38" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39">
@@ -7328,7 +8508,7 @@
         <v>69</v>
       </c>
       <c r="X39" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40">
@@ -7336,7 +8516,7 @@
         <v>203</v>
       </c>
       <c r="X40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -7344,7 +8524,7 @@
         <v>279</v>
       </c>
       <c r="X41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -7352,7 +8532,7 @@
         <v>290</v>
       </c>
       <c r="X42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -7360,7 +8540,7 @@
         <v>291</v>
       </c>
       <c r="X43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -7368,7 +8548,7 @@
         <v>333</v>
       </c>
       <c r="X44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -7376,7 +8556,7 @@
         <v>332</v>
       </c>
       <c r="X45" t="s">
-        <v>427</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -7384,7 +8564,7 @@
         <v>202</v>
       </c>
       <c r="X46" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47">
@@ -7392,7 +8572,7 @@
         <v>310</v>
       </c>
       <c r="X47" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48">
@@ -7400,7 +8580,7 @@
         <v>329</v>
       </c>
       <c r="X48" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -7408,7 +8588,7 @@
         <v>358</v>
       </c>
       <c r="X49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -7416,7 +8596,7 @@
         <v>292</v>
       </c>
       <c r="X50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -7424,7 +8604,7 @@
         <v>346</v>
       </c>
       <c r="X51" t="s">
-        <v>480</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -7432,7 +8612,7 @@
         <v>321</v>
       </c>
       <c r="X52" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
@@ -7440,7 +8620,7 @@
         <v>258</v>
       </c>
       <c r="X53" t="s">
-        <v>122</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
@@ -7448,7 +8628,7 @@
         <v>282</v>
       </c>
       <c r="X54" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
@@ -7456,7 +8636,7 @@
         <v>283</v>
       </c>
       <c r="X55" t="s">
-        <v>453</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56">
@@ -7464,7 +8644,7 @@
         <v>284</v>
       </c>
       <c r="X56" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
@@ -7472,7 +8652,7 @@
         <v>293</v>
       </c>
       <c r="X57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
@@ -7480,7 +8660,7 @@
         <v>302</v>
       </c>
       <c r="X58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -7488,7 +8668,7 @@
         <v>327</v>
       </c>
       <c r="X59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -7496,7 +8676,7 @@
         <v>299</v>
       </c>
       <c r="X60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -7504,7 +8684,7 @@
         <v>300</v>
       </c>
       <c r="X61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -7512,7 +8692,7 @@
         <v>359</v>
       </c>
       <c r="X62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -7520,7 +8700,7 @@
         <v>360</v>
       </c>
       <c r="X63" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -7528,7 +8708,7 @@
         <v>335</v>
       </c>
       <c r="X64" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65">
@@ -7536,7 +8716,7 @@
         <v>303</v>
       </c>
       <c r="X65" t="s">
-        <v>205</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66">
@@ -7544,7 +8724,7 @@
         <v>259</v>
       </c>
       <c r="X66" t="s">
-        <v>379</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
@@ -7552,7 +8732,7 @@
         <v>343</v>
       </c>
       <c r="X67" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68">
@@ -7560,7 +8740,7 @@
         <v>304</v>
       </c>
       <c r="X68" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69">
@@ -7568,7 +8748,7 @@
         <v>398</v>
       </c>
       <c r="X69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
@@ -7576,7 +8756,7 @@
         <v>294</v>
       </c>
       <c r="X70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
@@ -7584,7 +8764,7 @@
         <v>399</v>
       </c>
       <c r="X71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +8772,7 @@
         <v>252</v>
       </c>
       <c r="X72" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -7600,7 +8780,7 @@
         <v>334</v>
       </c>
       <c r="X73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74">
@@ -7608,7 +8788,7 @@
         <v>270</v>
       </c>
       <c r="X74" t="s">
-        <v>441</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75">
@@ -7616,7 +8796,7 @@
         <v>276</v>
       </c>
       <c r="X75" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76">
@@ -7624,7 +8804,7 @@
         <v>281</v>
       </c>
       <c r="X76" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77">
@@ -7632,7 +8812,7 @@
         <v>417</v>
       </c>
       <c r="X77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
@@ -7640,7 +8820,7 @@
         <v>322</v>
       </c>
       <c r="X78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -7648,7 +8828,7 @@
         <v>260</v>
       </c>
       <c r="X79" t="s">
-        <v>495</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -7656,7 +8836,7 @@
         <v>271</v>
       </c>
       <c r="X80" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81">
@@ -7664,7 +8844,7 @@
         <v>277</v>
       </c>
       <c r="X81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -7672,7 +8852,7 @@
         <v>266</v>
       </c>
       <c r="X82" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -7680,7 +8860,7 @@
         <v>261</v>
       </c>
       <c r="X83" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84">
@@ -7688,7 +8868,7 @@
         <v>278</v>
       </c>
       <c r="X84" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85">
@@ -7696,7 +8876,7 @@
         <v>262</v>
       </c>
       <c r="X85" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86">
@@ -7704,7 +8884,7 @@
         <v>263</v>
       </c>
       <c r="X86" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
@@ -7712,7 +8892,7 @@
         <v>295</v>
       </c>
       <c r="X87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88">
@@ -7720,7 +8900,7 @@
         <v>301</v>
       </c>
       <c r="X88" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89">
@@ -7728,7 +8908,7 @@
         <v>285</v>
       </c>
       <c r="X89" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -7736,7 +8916,7 @@
         <v>330</v>
       </c>
       <c r="X90" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
@@ -7744,7 +8924,7 @@
         <v>267</v>
       </c>
       <c r="X91" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
@@ -7752,161 +8932,166 @@
         <v>268</v>
       </c>
       <c r="X92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1571,6 +1571,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="153" x14ac:knownFonts="1">
+  <fonts count="185" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2548,8 +2551,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="246">
+  <fills count="300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3939,8 +4144,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="310">
     <border>
       <left/>
       <right/>
@@ -6501,13 +7012,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6965,52 +8040,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="230" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="230" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="236" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="236" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="239" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="239" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="242" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="242" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="156" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="257" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="263" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="266" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="269" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="284" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="290" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="293" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7308,7 +8479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -8972,126 +10143,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>140</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -15,14 +15,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1574,6 +1574,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1593,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="185" x14ac:knownFonts="1">
+  <fonts count="201" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2753,8 +2765,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="300">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4450,8 +4563,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="310">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -7576,13 +7842,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8136,52 +8684,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="171" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="172" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="284" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="284" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="290" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="290" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="293" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="293" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="296" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="296" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8907,6 +9503,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>503</v>
+      </c>
       <c r="G6" t="s">
         <v>378</v>
       </c>
@@ -9029,7 +9628,7 @@
         <v>318</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>504</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -9082,7 +9681,7 @@
         <v>319</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -9123,7 +9722,7 @@
         <v>440</v>
       </c>
       <c r="K10" t="s">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
@@ -9161,7 +9760,7 @@
         <v>312</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>505</v>
       </c>
       <c r="M11" t="s">
         <v>471</v>
@@ -9196,7 +9795,7 @@
         <v>313</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="M12" t="s">
         <v>424</v>
@@ -9231,7 +9830,7 @@
         <v>314</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>470</v>
@@ -9266,7 +9865,7 @@
         <v>315</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
         <v>31</v>
@@ -9298,7 +9897,7 @@
         <v>255</v>
       </c>
       <c r="K15" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="M15" t="s">
         <v>32</v>
@@ -9330,7 +9929,7 @@
         <v>307</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
@@ -9362,7 +9961,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
         <v>501</v>
@@ -9385,7 +9984,7 @@
         <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="X18" t="s">
         <v>96</v>
@@ -9405,7 +10004,7 @@
         <v>286</v>
       </c>
       <c r="K19" t="s">
-        <v>469</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s">
         <v>97</v>
@@ -9425,7 +10024,7 @@
         <v>287</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
         <v>98</v>
@@ -9445,7 +10044,7 @@
         <v>288</v>
       </c>
       <c r="K21" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="X21" t="s">
         <v>99</v>
@@ -9465,7 +10064,7 @@
         <v>289</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="X22" t="s">
         <v>484</v>
@@ -9482,7 +10081,7 @@
         <v>280</v>
       </c>
       <c r="K23" t="s">
-        <v>422</v>
+        <v>36</v>
       </c>
       <c r="X23" t="s">
         <v>101</v>
@@ -9499,7 +10098,7 @@
         <v>269</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="X24" t="s">
         <v>102</v>
@@ -9516,7 +10115,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s">
         <v>103</v>
@@ -9532,6 +10131,9 @@
       <c r="G26" t="s">
         <v>272</v>
       </c>
+      <c r="K26" t="s">
+        <v>422</v>
+      </c>
       <c r="X26" t="s">
         <v>104</v>
       </c>
@@ -9546,6 +10148,9 @@
       <c r="G27" t="s">
         <v>256</v>
       </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
       <c r="X27" t="s">
         <v>105</v>
       </c>
@@ -9559,6 +10164,9 @@
       </c>
       <c r="G28" t="s">
         <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
       </c>
       <c r="X28" t="s">
         <v>317</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7094" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1586,6 +1586,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1599,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="201" x14ac:knownFonts="1">
+  <fonts count="217" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2866,8 +2872,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4716,8 +4823,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="366">
     <border>
       <left/>
       <right/>
@@ -8124,13 +8384,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8732,52 +9274,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="311" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="311" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="317" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="317" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="320" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="320" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="323" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="323" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10224,7 +10814,7 @@
         <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="X33" t="s">
         <v>110</v>
@@ -10235,7 +10825,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="X34" t="s">
         <v>111</v>
@@ -10246,7 +10836,7 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
         <v>201</v>
@@ -10257,7 +10847,7 @@
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="X36" t="s">
         <v>112</v>
@@ -10268,7 +10858,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="X37" t="s">
         <v>328</v>
@@ -10276,7 +10866,7 @@
     </row>
     <row r="38">
       <c r="G38" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="X38" t="s">
         <v>426</v>
@@ -10284,7 +10874,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="X39" t="s">
         <v>383</v>
@@ -10292,7 +10882,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="X40" t="s">
         <v>113</v>
@@ -10300,7 +10890,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="X41" t="s">
         <v>114</v>
@@ -10308,7 +10898,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X42" t="s">
         <v>115</v>
@@ -10316,7 +10906,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X43" t="s">
         <v>116</v>
@@ -10324,7 +10914,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="X44" t="s">
         <v>117</v>
@@ -10332,7 +10922,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="X45" t="s">
         <v>118</v>
@@ -10340,7 +10930,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="X46" t="s">
         <v>427</v>
@@ -10348,7 +10938,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="X47" t="s">
         <v>204</v>
@@ -10356,7 +10946,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="X48" t="s">
         <v>68</v>
@@ -10364,7 +10954,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="X49" t="s">
         <v>119</v>
@@ -10372,7 +10962,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="X50" t="s">
         <v>120</v>
@@ -10380,7 +10970,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="X51" t="s">
         <v>121</v>
@@ -10388,7 +10978,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="X52" t="s">
         <v>480</v>
@@ -10396,7 +10986,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="X53" t="s">
         <v>452</v>
@@ -10404,7 +10994,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="X54" t="s">
         <v>122</v>
@@ -10412,7 +11002,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X55" t="s">
         <v>336</v>
@@ -10420,7 +11010,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X56" t="s">
         <v>453</v>
@@ -10428,7 +11018,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="X57" t="s">
         <v>123</v>
@@ -10436,7 +11026,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X58" t="s">
         <v>124</v>
@@ -10444,7 +11034,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="X59" t="s">
         <v>125</v>
@@ -10452,7 +11042,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="X60" t="s">
         <v>126</v>
@@ -10460,7 +11050,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X61" t="s">
         <v>127</v>
@@ -10468,7 +11058,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="X62" t="s">
         <v>128</v>
@@ -10476,7 +11066,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X63" t="s">
         <v>129</v>
@@ -10484,7 +11074,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="X64" t="s">
         <v>428</v>
@@ -10492,7 +11082,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="X65" t="s">
         <v>472</v>
@@ -10500,7 +11090,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="X66" t="s">
         <v>205</v>
@@ -10508,7 +11098,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="X67" t="s">
         <v>379</v>
@@ -10516,7 +11106,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="X68" t="s">
         <v>429</v>
@@ -10524,7 +11114,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="X69" t="s">
         <v>130</v>
@@ -10532,7 +11122,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="X70" t="s">
         <v>131</v>
@@ -10540,7 +11130,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="X71" t="s">
         <v>132</v>
@@ -10548,7 +11138,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="X72" t="s">
         <v>133</v>
@@ -10556,7 +11146,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="X73" t="s">
         <v>188</v>
@@ -10564,7 +11154,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>270</v>
+        <v>508</v>
       </c>
       <c r="X74" t="s">
         <v>189</v>
@@ -10572,7 +11162,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="X75" t="s">
         <v>441</v>
@@ -10580,7 +11170,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="X76" t="s">
         <v>454</v>
@@ -10588,7 +11178,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="X77" t="s">
         <v>134</v>
@@ -10596,7 +11186,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="X78" t="s">
         <v>135</v>
@@ -10604,7 +11194,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>260</v>
+        <v>417</v>
       </c>
       <c r="X79" t="s">
         <v>136</v>
@@ -10612,7 +11202,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="X80" t="s">
         <v>495</v>
@@ -10620,7 +11210,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="X81" t="s">
         <v>137</v>
@@ -10628,7 +11218,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="X82" t="s">
         <v>138</v>
@@ -10636,7 +11226,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="X83" t="s">
         <v>190</v>
@@ -10644,7 +11234,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="X84" t="s">
         <v>481</v>
@@ -10652,7 +11242,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X85" t="s">
         <v>191</v>
@@ -10660,7 +11250,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="X86" t="s">
         <v>442</v>
@@ -10668,7 +11258,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="X87" t="s">
         <v>192</v>
@@ -10676,7 +11266,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="X88" t="s">
         <v>193</v>
@@ -10684,7 +11274,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="X89" t="s">
         <v>206</v>
@@ -10692,7 +11282,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="X90" t="s">
         <v>139</v>
@@ -10700,7 +11290,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="X91" t="s">
         <v>194</v>
@@ -10708,18 +11298,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="X92" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>267</v>
+      </c>
       <c r="X93" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>268</v>
+      </c>
       <c r="X94" t="s">
         <v>195</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7094" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1592,6 +1592,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="217" x14ac:knownFonts="1">
+  <fonts count="249" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2973,8 +2979,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="354">
+  <fills count="414">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4976,8 +5184,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="366">
+  <borders count="422">
     <border>
       <left/>
       <right/>
@@ -8666,13 +9214,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9322,52 +10434,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="329" borderId="345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="332" borderId="349" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="335" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="204" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="338" borderId="353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="338" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="344" borderId="357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="344" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="347" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="347" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="350" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="350" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="219" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="220" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="365" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="371" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="374" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="377" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="383" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="386" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="389" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="392" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="395" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="401" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="404" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="407" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="407" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="413" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9665,7 +10873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -11352,126 +12560,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>140</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>141</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>432</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>155</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -25,27 +25,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1598,6 +1599,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1627,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="249" x14ac:knownFonts="1">
+  <fonts count="265" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3181,8 +3203,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="414">
+  <fills count="444">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5524,8 +5647,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="422">
+  <borders count="450">
     <border>
       <left/>
       <right/>
@@ -9778,13 +10071,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10530,52 +11105,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="383" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="386" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="386" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="389" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="389" fontId="235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="392" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="392" fontId="236" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="395" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="395" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="398" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="401" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="401" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="404" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="404" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="407" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="407" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="407" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="407" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="395" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="410" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="395" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="413" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="416" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="419" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="422" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="425" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="431" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="434" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="437" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="437" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="443" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10873,7 +11496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10923,51 +11546,54 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>187</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>229</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>384</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>400</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>401</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>347</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>385</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>402</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11012,51 +11638,54 @@
         <v>423</v>
       </c>
       <c r="N2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O2" t="s">
         <v>477</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>405</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>418</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>243</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>208</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>386</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>407</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>371</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>395</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>162</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>420</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -11101,45 +11730,48 @@
         <v>77</v>
       </c>
       <c r="N3" t="s">
+        <v>513</v>
+      </c>
+      <c r="O3" t="s">
         <v>478</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>419</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>230</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>209</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>387</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>372</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>396</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>163</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>354</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -11181,45 +11813,48 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>514</v>
+      </c>
+      <c r="O4" t="s">
         <v>479</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>231</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>210</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>388</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>348</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>397</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>344</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>412</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -11254,40 +11889,43 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>232</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>211</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>389</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>411</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>349</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>345</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>165</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>176</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>413</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11319,37 +11957,40 @@
       <c r="M6" t="s">
         <v>21</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q6" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>233</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>381</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>351</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>90</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>433</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>171</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>414</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -11375,37 +12016,40 @@
       <c r="M7" t="s">
         <v>305</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q7" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>234</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>406</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>391</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>350</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>91</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>434</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>172</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>178</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>415</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -11431,34 +12075,34 @@
       <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>235</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>392</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>352</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>92</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>166</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>179</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>416</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -11484,25 +12128,25 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>236</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>393</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>353</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>200</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>224</v>
       </c>
     </row>
@@ -11525,22 +12169,22 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>425</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>237</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>394</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>247</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>181</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -11563,19 +12207,19 @@
       <c r="M11" t="s">
         <v>471</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>238</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>248</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>249</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11598,19 +12242,19 @@
       <c r="M12" t="s">
         <v>424</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>239</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>93</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>182</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>492</v>
       </c>
     </row>
@@ -11633,25 +12277,25 @@
       <c r="M13" t="s">
         <v>470</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>244</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>316</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>183</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -11668,25 +12312,25 @@
       <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>240</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>94</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>184</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -11700,25 +12344,25 @@
       <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>499</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>241</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>95</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>185</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
         <v>375</v>
@@ -11732,25 +12376,25 @@
       <c r="M16" t="s">
         <v>35</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>500</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>242</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>186</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>376</v>
@@ -11761,19 +12405,19 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>501</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>455</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
         <v>403</v>
@@ -11784,16 +12428,16 @@
       <c r="K18" t="s">
         <v>451</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>96</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -11804,16 +12448,16 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>97</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -11824,16 +12468,16 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>98</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -11844,16 +12488,16 @@
       <c r="K21" t="s">
         <v>370</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>99</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="E22" t="s">
         <v>311</v>
@@ -11864,13 +12508,13 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
         <v>54</v>
@@ -11881,13 +12525,13 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="E24" t="s">
         <v>437</v>
@@ -11898,13 +12542,13 @@
       <c r="K24" t="s">
         <v>382</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>215</v>
@@ -11915,13 +12559,13 @@
       <c r="K25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>216</v>
@@ -11932,13 +12576,13 @@
       <c r="K26" t="s">
         <v>422</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>467</v>
@@ -11949,13 +12593,13 @@
       <c r="K27" t="s">
         <v>37</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>468</v>
@@ -11966,13 +12610,13 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>402</v>
       </c>
       <c r="E29" t="s">
         <v>404</v>
@@ -11980,18 +12624,21 @@
       <c r="G29" t="s">
         <v>274</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
       <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -12002,7 +12649,7 @@
       <c r="G31" t="s">
         <v>265</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12013,7 +12660,7 @@
       <c r="G32" t="s">
         <v>275</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12024,7 +12671,7 @@
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12035,7 +12682,7 @@
       <c r="G34" t="s">
         <v>250</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>111</v>
       </c>
     </row>
@@ -12046,7 +12693,7 @@
       <c r="G35" t="s">
         <v>320</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>201</v>
       </c>
     </row>
@@ -12057,7 +12704,7 @@
       <c r="G36" t="s">
         <v>297</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12068,7 +12715,7 @@
       <c r="G37" t="s">
         <v>251</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>328</v>
       </c>
     </row>
@@ -12076,7 +12723,7 @@
       <c r="G38" t="s">
         <v>298</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>426</v>
       </c>
     </row>
@@ -12084,7 +12731,7 @@
       <c r="G39" t="s">
         <v>257</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>383</v>
       </c>
     </row>
@@ -12092,7 +12739,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12100,7 +12747,7 @@
       <c r="G41" t="s">
         <v>203</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12108,7 +12755,7 @@
       <c r="G42" t="s">
         <v>279</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12116,7 +12763,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12124,7 +12771,7 @@
       <c r="G44" t="s">
         <v>291</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12132,7 +12779,7 @@
       <c r="G45" t="s">
         <v>333</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12140,7 +12787,7 @@
       <c r="G46" t="s">
         <v>332</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>427</v>
       </c>
     </row>
@@ -12148,7 +12795,7 @@
       <c r="G47" t="s">
         <v>202</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>204</v>
       </c>
     </row>
@@ -12156,7 +12803,7 @@
       <c r="G48" t="s">
         <v>310</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12164,7 +12811,7 @@
       <c r="G49" t="s">
         <v>329</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12172,7 +12819,7 @@
       <c r="G50" t="s">
         <v>358</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12180,7 +12827,7 @@
       <c r="G51" t="s">
         <v>292</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12188,7 +12835,7 @@
       <c r="G52" t="s">
         <v>346</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>480</v>
       </c>
     </row>
@@ -12196,7 +12843,7 @@
       <c r="G53" t="s">
         <v>321</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>452</v>
       </c>
     </row>
@@ -12204,7 +12851,7 @@
       <c r="G54" t="s">
         <v>258</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12212,7 +12859,7 @@
       <c r="G55" t="s">
         <v>282</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>336</v>
       </c>
     </row>
@@ -12220,7 +12867,7 @@
       <c r="G56" t="s">
         <v>283</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>453</v>
       </c>
     </row>
@@ -12228,7 +12875,7 @@
       <c r="G57" t="s">
         <v>284</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12236,7 +12883,7 @@
       <c r="G58" t="s">
         <v>293</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12244,7 +12891,7 @@
       <c r="G59" t="s">
         <v>302</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12252,7 +12899,7 @@
       <c r="G60" t="s">
         <v>327</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12260,7 +12907,7 @@
       <c r="G61" t="s">
         <v>299</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12268,7 +12915,7 @@
       <c r="G62" t="s">
         <v>300</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12276,7 +12923,7 @@
       <c r="G63" t="s">
         <v>359</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12284,7 +12931,7 @@
       <c r="G64" t="s">
         <v>360</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>428</v>
       </c>
     </row>
@@ -12292,7 +12939,7 @@
       <c r="G65" t="s">
         <v>335</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>472</v>
       </c>
     </row>
@@ -12300,7 +12947,7 @@
       <c r="G66" t="s">
         <v>303</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>205</v>
       </c>
     </row>
@@ -12308,7 +12955,7 @@
       <c r="G67" t="s">
         <v>259</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>379</v>
       </c>
     </row>
@@ -12316,7 +12963,7 @@
       <c r="G68" t="s">
         <v>343</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>429</v>
       </c>
     </row>
@@ -12324,7 +12971,7 @@
       <c r="G69" t="s">
         <v>304</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12332,7 +12979,7 @@
       <c r="G70" t="s">
         <v>398</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12340,7 +12987,7 @@
       <c r="G71" t="s">
         <v>294</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12348,7 +12995,7 @@
       <c r="G72" t="s">
         <v>399</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12356,7 +13003,7 @@
       <c r="G73" t="s">
         <v>252</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>188</v>
       </c>
     </row>
@@ -12364,7 +13011,7 @@
       <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12372,7 +13019,7 @@
       <c r="G75" t="s">
         <v>334</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>441</v>
       </c>
     </row>
@@ -12380,7 +13027,7 @@
       <c r="G76" t="s">
         <v>270</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>454</v>
       </c>
     </row>
@@ -12388,7 +13035,7 @@
       <c r="G77" t="s">
         <v>276</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12396,7 +13043,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12404,7 +13051,7 @@
       <c r="G79" t="s">
         <v>417</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12412,7 +13059,7 @@
       <c r="G80" t="s">
         <v>322</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12420,7 +13067,7 @@
       <c r="G81" t="s">
         <v>260</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12428,7 +13075,7 @@
       <c r="G82" t="s">
         <v>271</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12436,7 +13083,7 @@
       <c r="G83" t="s">
         <v>277</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>190</v>
       </c>
     </row>
@@ -12444,7 +13091,7 @@
       <c r="G84" t="s">
         <v>266</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>481</v>
       </c>
     </row>
@@ -12452,7 +13099,7 @@
       <c r="G85" t="s">
         <v>261</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12460,7 +13107,7 @@
       <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>442</v>
       </c>
     </row>
@@ -12468,7 +13115,7 @@
       <c r="G87" t="s">
         <v>262</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>192</v>
       </c>
     </row>
@@ -12476,7 +13123,7 @@
       <c r="G88" t="s">
         <v>263</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>193</v>
       </c>
     </row>
@@ -12484,7 +13131,7 @@
       <c r="G89" t="s">
         <v>295</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>206</v>
       </c>
     </row>
@@ -12492,7 +13139,7 @@
       <c r="G90" t="s">
         <v>301</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12500,7 +13147,7 @@
       <c r="G91" t="s">
         <v>285</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12508,7 +13155,7 @@
       <c r="G92" t="s">
         <v>330</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12516,7 +13163,7 @@
       <c r="G93" t="s">
         <v>267</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>431</v>
       </c>
     </row>
@@ -12524,172 +13171,172 @@
       <c r="G94" t="s">
         <v>268</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -22,7 +22,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8659" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10781" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1620,6 +1620,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1639,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="265" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3304,8 +3316,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="444">
+  <fills count="564">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5817,8 +6233,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="450">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -10353,13 +11449,1141 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11153,52 +13377,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="413" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="416" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="416" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="419" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="419" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="422" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="422" fontId="252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="425" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="425" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="428" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="431" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="431" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="434" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="434" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="437" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="437" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="437" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="437" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="425" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="440" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="425" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="443" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="443" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="446" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="449" fontId="267" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="452" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="455" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="461" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="464" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="467" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="467" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="455" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="470" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="455" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="476" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="479" fontId="283" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="482" fontId="284" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="485" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="488" fontId="287" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="491" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="494" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="497" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="497" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="503" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="506" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="509" fontId="299" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="512" fontId="300" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="515" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="518" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="521" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="524" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="527" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="527" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="530" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="533" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="536" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="539" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="542" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="545" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="551" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="554" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="557" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="557" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11890,7 +14306,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -11958,7 +14374,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -12017,7 +14433,7 @@
         <v>305</v>
       </c>
       <c r="N7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -12075,6 +14491,9 @@
       <c r="M8" t="s">
         <v>26</v>
       </c>
+      <c r="N8" t="s">
+        <v>515</v>
+      </c>
       <c r="Q8" t="s">
         <v>82</v>
       </c>
@@ -12128,6 +14547,9 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
+      <c r="N9" t="s">
+        <v>516</v>
+      </c>
       <c r="Q9" t="s">
         <v>83</v>
       </c>
@@ -12169,6 +14591,9 @@
       <c r="M10" t="s">
         <v>28</v>
       </c>
+      <c r="N10" t="s">
+        <v>517</v>
+      </c>
       <c r="Q10" t="s">
         <v>425</v>
       </c>
@@ -12557,7 +14982,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="Y25" t="s">
         <v>103</v>
@@ -12574,7 +14999,7 @@
         <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
         <v>104</v>
@@ -12591,7 +15016,7 @@
         <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="Y27" t="s">
         <v>105</v>
@@ -12608,7 +15033,7 @@
         <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
         <v>317</v>
@@ -12623,6 +15048,9 @@
       </c>
       <c r="G29" t="s">
         <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
       </c>
       <c r="Y29" t="s">
         <v>106</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -45,8 +45,8 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10781" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11315" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1632,6 +1632,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="345" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3720,8 +3732,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="564">
+  <fills count="594">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6913,8 +7026,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -12577,13 +12860,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13569,52 +14134,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="533" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="536" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="536" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="539" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="539" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="542" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="542" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="545" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="545" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="548" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="548" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="551" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="551" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="554" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="554" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="557" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="557" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="557" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="557" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="545" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="560" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="560" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="545" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="545" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="563" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="563" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="566" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="569" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="572" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="575" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="578" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="581" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="584" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="587" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="587" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="590" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14116,7 +14729,7 @@
         <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
         <v>446</v>
@@ -14199,7 +14812,7 @@
         <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -14282,7 +14895,7 @@
         <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E5" t="s">
         <v>447</v>
@@ -14306,7 +14919,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
@@ -14352,6 +14965,9 @@
       <c r="B6" t="s">
         <v>366</v>
       </c>
+      <c r="D6" t="s">
+        <v>489</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -14374,7 +14990,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -14433,7 +15049,7 @@
         <v>305</v>
       </c>
       <c r="N7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -14492,7 +15108,7 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="s">
         <v>82</v>
@@ -14548,7 +15164,7 @@
         <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="Q9" t="s">
         <v>83</v>
@@ -14592,7 +15208,7 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q10" t="s">
         <v>425</v>
@@ -14632,6 +15248,9 @@
       <c r="M11" t="s">
         <v>471</v>
       </c>
+      <c r="N11" t="s">
+        <v>516</v>
+      </c>
       <c r="Q11" t="s">
         <v>84</v>
       </c>
@@ -14667,6 +15286,9 @@
       <c r="M12" t="s">
         <v>424</v>
       </c>
+      <c r="N12" t="s">
+        <v>517</v>
+      </c>
       <c r="Q12" t="s">
         <v>33</v>
       </c>
@@ -14982,7 +15604,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Y25" t="s">
         <v>103</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -20,7 +20,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11315" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11851" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1644,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1657,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="345" x14ac:knownFonts="1">
+  <fonts count="361" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3833,8 +3839,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="594">
+  <fills count="624">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7196,8 +7303,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="618">
     <border>
       <left/>
       <right/>
@@ -13142,13 +13419,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="374">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14182,52 +14741,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="563" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="566" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="566" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="569" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="569" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="572" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="572" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="575" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="575" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="578" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="578" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="581" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="581" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="584" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="584" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="587" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="587" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="587" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="587" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="575" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="590" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="590" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="575" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="596" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="599" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="602" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="605" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="611" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="614" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="617" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="617" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14525,7 +15132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14909,6 +15516,9 @@
       <c r="H5" t="s">
         <v>448</v>
       </c>
+      <c r="I5" t="s">
+        <v>526</v>
+      </c>
       <c r="J5" t="s">
         <v>341</v>
       </c>
@@ -15782,7 +16392,7 @@
         <v>257</v>
       </c>
       <c r="Y39" t="s">
-        <v>383</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40">
@@ -15790,7 +16400,7 @@
         <v>69</v>
       </c>
       <c r="Y40" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
@@ -15798,7 +16408,7 @@
         <v>203</v>
       </c>
       <c r="Y41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -15806,7 +16416,7 @@
         <v>279</v>
       </c>
       <c r="Y42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -15814,7 +16424,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -15822,7 +16432,7 @@
         <v>291</v>
       </c>
       <c r="Y44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -15830,7 +16440,7 @@
         <v>333</v>
       </c>
       <c r="Y45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -15838,7 +16448,7 @@
         <v>332</v>
       </c>
       <c r="Y46" t="s">
-        <v>427</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -15846,7 +16456,7 @@
         <v>202</v>
       </c>
       <c r="Y47" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
@@ -15854,7 +16464,7 @@
         <v>310</v>
       </c>
       <c r="Y48" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49">
@@ -15862,7 +16472,7 @@
         <v>329</v>
       </c>
       <c r="Y49" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -15870,7 +16480,7 @@
         <v>358</v>
       </c>
       <c r="Y50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -15878,7 +16488,7 @@
         <v>292</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -15886,7 +16496,7 @@
         <v>346</v>
       </c>
       <c r="Y52" t="s">
-        <v>480</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -15894,7 +16504,7 @@
         <v>321</v>
       </c>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54">
@@ -15902,7 +16512,7 @@
         <v>258</v>
       </c>
       <c r="Y54" t="s">
-        <v>122</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55">
@@ -15910,7 +16520,7 @@
         <v>282</v>
       </c>
       <c r="Y55" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -15918,7 +16528,7 @@
         <v>283</v>
       </c>
       <c r="Y56" t="s">
-        <v>453</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57">
@@ -15926,7 +16536,7 @@
         <v>284</v>
       </c>
       <c r="Y57" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58">
@@ -15934,7 +16544,7 @@
         <v>293</v>
       </c>
       <c r="Y58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -15942,7 +16552,7 @@
         <v>302</v>
       </c>
       <c r="Y59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
@@ -15950,7 +16560,7 @@
         <v>327</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -15958,7 +16568,7 @@
         <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -15966,7 +16576,7 @@
         <v>300</v>
       </c>
       <c r="Y62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
@@ -15974,7 +16584,7 @@
         <v>359</v>
       </c>
       <c r="Y63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -15982,7 +16592,7 @@
         <v>360</v>
       </c>
       <c r="Y64" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -15990,7 +16600,7 @@
         <v>335</v>
       </c>
       <c r="Y65" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66">
@@ -15998,7 +16608,7 @@
         <v>303</v>
       </c>
       <c r="Y66" t="s">
-        <v>205</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
@@ -16006,7 +16616,7 @@
         <v>259</v>
       </c>
       <c r="Y67" t="s">
-        <v>379</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
@@ -16014,7 +16624,7 @@
         <v>343</v>
       </c>
       <c r="Y68" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69">
@@ -16022,7 +16632,7 @@
         <v>304</v>
       </c>
       <c r="Y69" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70">
@@ -16030,7 +16640,7 @@
         <v>398</v>
       </c>
       <c r="Y70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
@@ -16038,7 +16648,7 @@
         <v>294</v>
       </c>
       <c r="Y71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
@@ -16046,7 +16656,7 @@
         <v>399</v>
       </c>
       <c r="Y72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -16054,7 +16664,7 @@
         <v>252</v>
       </c>
       <c r="Y73" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -16062,7 +16672,7 @@
         <v>508</v>
       </c>
       <c r="Y74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75">
@@ -16070,7 +16680,7 @@
         <v>334</v>
       </c>
       <c r="Y75" t="s">
-        <v>441</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
@@ -16078,7 +16688,7 @@
         <v>270</v>
       </c>
       <c r="Y76" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77">
@@ -16086,7 +16696,7 @@
         <v>276</v>
       </c>
       <c r="Y77" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78">
@@ -16094,7 +16704,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
@@ -16102,7 +16712,7 @@
         <v>417</v>
       </c>
       <c r="Y79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -16110,7 +16720,7 @@
         <v>322</v>
       </c>
       <c r="Y80" t="s">
-        <v>495</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -16118,7 +16728,7 @@
         <v>260</v>
       </c>
       <c r="Y81" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82">
@@ -16126,7 +16736,7 @@
         <v>271</v>
       </c>
       <c r="Y82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
@@ -16134,7 +16744,7 @@
         <v>277</v>
       </c>
       <c r="Y83" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -16142,7 +16752,7 @@
         <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85">
@@ -16150,7 +16760,7 @@
         <v>261</v>
       </c>
       <c r="Y85" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86">
@@ -16158,7 +16768,7 @@
         <v>278</v>
       </c>
       <c r="Y86" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87">
@@ -16166,7 +16776,7 @@
         <v>262</v>
       </c>
       <c r="Y87" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88">
@@ -16174,7 +16784,7 @@
         <v>263</v>
       </c>
       <c r="Y88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89">
@@ -16182,7 +16792,7 @@
         <v>295</v>
       </c>
       <c r="Y89" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
@@ -16190,7 +16800,7 @@
         <v>301</v>
       </c>
       <c r="Y90" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -16198,7 +16808,7 @@
         <v>285</v>
       </c>
       <c r="Y91" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
@@ -16206,7 +16816,7 @@
         <v>330</v>
       </c>
       <c r="Y92" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93">
@@ -16214,7 +16824,7 @@
         <v>267</v>
       </c>
       <c r="Y93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94">
@@ -16222,171 +16832,176 @@
         <v>268</v>
       </c>
       <c r="Y94" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>502</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>140</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>373</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -18,13 +18,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -39,12 +39,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11851" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12397" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1650,6 +1650,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1690,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="361" x14ac:knownFonts="1">
+  <fonts count="377" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3940,8 +3973,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="624">
+  <fills count="651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7473,8 +7607,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="618">
+  <borders count="650">
     <border>
       <left/>
       <right/>
@@ -13523,6 +13810,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -13707,7 +14320,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="390">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14789,52 +15402,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="596" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="596" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="599" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="599" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="602" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="602" fontId="348" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="605" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="605" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="611" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="611" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="614" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="614" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="617" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="617" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="617" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="617" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="605" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="605" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="626" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="629" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="632" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="635" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="641" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="632" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="644" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="644" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15132,7 +15793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -15652,6 +16313,9 @@
       <c r="H7" t="s">
         <v>435</v>
       </c>
+      <c r="J7" t="s">
+        <v>530</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -15692,7 +16356,7 @@
         <v>415</v>
       </c>
       <c r="AD7" t="s">
-        <v>222</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8">
@@ -15748,7 +16412,7 @@
         <v>416</v>
       </c>
       <c r="AD8" t="s">
-        <v>223</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
@@ -15795,7 +16459,7 @@
         <v>180</v>
       </c>
       <c r="AD9" t="s">
-        <v>224</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10">
@@ -15836,7 +16500,7 @@
         <v>181</v>
       </c>
       <c r="AD10" t="s">
-        <v>473</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -15874,7 +16538,7 @@
         <v>249</v>
       </c>
       <c r="AD11" t="s">
-        <v>491</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
@@ -15894,7 +16558,7 @@
         <v>380</v>
       </c>
       <c r="M12" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="N12" t="s">
         <v>517</v>
@@ -15912,7 +16576,7 @@
         <v>182</v>
       </c>
       <c r="AD12" t="s">
-        <v>492</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
@@ -15932,7 +16596,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -15947,7 +16611,7 @@
         <v>183</v>
       </c>
       <c r="AD13" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -15967,7 +16631,7 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>470</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -15982,7 +16646,7 @@
         <v>184</v>
       </c>
       <c r="AD14" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15">
@@ -15999,7 +16663,7 @@
         <v>506</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
         <v>499</v>
@@ -16014,7 +16678,7 @@
         <v>185</v>
       </c>
       <c r="AD15" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16">
@@ -16031,7 +16695,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
         <v>500</v>
@@ -16046,7 +16710,7 @@
         <v>186</v>
       </c>
       <c r="AD16" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17">
@@ -16062,6 +16726,9 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
       <c r="Y17" t="s">
         <v>501</v>
       </c>
@@ -16069,7 +16736,7 @@
         <v>455</v>
       </c>
       <c r="AD17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18">
@@ -16089,7 +16756,7 @@
         <v>96</v>
       </c>
       <c r="AD18" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19">
@@ -16109,7 +16776,7 @@
         <v>97</v>
       </c>
       <c r="AD19" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20">
@@ -16129,7 +16796,7 @@
         <v>98</v>
       </c>
       <c r="AD20" t="s">
-        <v>226</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21">
@@ -16149,7 +16816,7 @@
         <v>99</v>
       </c>
       <c r="AD21" t="s">
-        <v>227</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22">
@@ -16168,6 +16835,9 @@
       <c r="Y22" t="s">
         <v>484</v>
       </c>
+      <c r="AD22" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -16185,6 +16855,9 @@
       <c r="Y23" t="s">
         <v>101</v>
       </c>
+      <c r="AD23" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -16202,6 +16875,9 @@
       <c r="Y24" t="s">
         <v>102</v>
       </c>
+      <c r="AD24" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -16219,6 +16895,9 @@
       <c r="Y25" t="s">
         <v>103</v>
       </c>
+      <c r="AD25" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -16236,6 +16915,9 @@
       <c r="Y26" t="s">
         <v>104</v>
       </c>
+      <c r="AD26" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -16253,6 +16935,9 @@
       <c r="Y27" t="s">
         <v>105</v>
       </c>
+      <c r="AD27" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -16480,7 +17165,7 @@
         <v>358</v>
       </c>
       <c r="Y50" t="s">
-        <v>119</v>
+        <v>532</v>
       </c>
     </row>
     <row r="51">
@@ -16488,7 +17173,7 @@
         <v>292</v>
       </c>
       <c r="Y51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -16496,7 +17181,7 @@
         <v>346</v>
       </c>
       <c r="Y52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -16504,7 +17189,7 @@
         <v>321</v>
       </c>
       <c r="Y53" t="s">
-        <v>480</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -16512,7 +17197,7 @@
         <v>258</v>
       </c>
       <c r="Y54" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55">
@@ -16520,7 +17205,7 @@
         <v>282</v>
       </c>
       <c r="Y55" t="s">
-        <v>122</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56">
@@ -16528,7 +17213,7 @@
         <v>283</v>
       </c>
       <c r="Y56" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -16536,7 +17221,7 @@
         <v>284</v>
       </c>
       <c r="Y57" t="s">
-        <v>453</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58">
@@ -16544,7 +17229,7 @@
         <v>293</v>
       </c>
       <c r="Y58" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59">
@@ -16552,7 +17237,7 @@
         <v>302</v>
       </c>
       <c r="Y59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -16560,7 +17245,7 @@
         <v>327</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -16568,7 +17253,7 @@
         <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -16576,7 +17261,7 @@
         <v>300</v>
       </c>
       <c r="Y62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
@@ -16584,7 +17269,7 @@
         <v>359</v>
       </c>
       <c r="Y63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -16592,7 +17277,7 @@
         <v>360</v>
       </c>
       <c r="Y64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
@@ -16600,7 +17285,7 @@
         <v>335</v>
       </c>
       <c r="Y65" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
@@ -16608,7 +17293,7 @@
         <v>303</v>
       </c>
       <c r="Y66" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67">
@@ -16616,15 +17301,15 @@
         <v>259</v>
       </c>
       <c r="Y67" t="s">
-        <v>205</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>343</v>
+        <v>528</v>
       </c>
       <c r="Y68" t="s">
-        <v>379</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69">
@@ -16632,7 +17317,7 @@
         <v>304</v>
       </c>
       <c r="Y69" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70">
@@ -16640,7 +17325,7 @@
         <v>398</v>
       </c>
       <c r="Y70" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71">
@@ -16648,7 +17333,7 @@
         <v>294</v>
       </c>
       <c r="Y71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
@@ -16656,7 +17341,7 @@
         <v>399</v>
       </c>
       <c r="Y72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
@@ -16664,7 +17349,7 @@
         <v>252</v>
       </c>
       <c r="Y73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
@@ -16672,7 +17357,7 @@
         <v>508</v>
       </c>
       <c r="Y74" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
@@ -16680,7 +17365,7 @@
         <v>334</v>
       </c>
       <c r="Y75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76">
@@ -16688,7 +17373,7 @@
         <v>270</v>
       </c>
       <c r="Y76" t="s">
-        <v>441</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77">
@@ -16696,7 +17381,7 @@
         <v>276</v>
       </c>
       <c r="Y77" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78">
@@ -16704,7 +17389,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79">
@@ -16712,7 +17397,7 @@
         <v>417</v>
       </c>
       <c r="Y79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80">
@@ -16720,7 +17405,7 @@
         <v>322</v>
       </c>
       <c r="Y80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
@@ -16728,7 +17413,7 @@
         <v>260</v>
       </c>
       <c r="Y81" t="s">
-        <v>495</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
@@ -16736,7 +17421,7 @@
         <v>271</v>
       </c>
       <c r="Y82" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83">
@@ -16744,7 +17429,7 @@
         <v>277</v>
       </c>
       <c r="Y83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
@@ -16752,256 +17437,264 @@
         <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>261</v>
+        <v>529</v>
       </c>
       <c r="Y85" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="Y86" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Y87" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y88" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="Y89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Y90" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="Y91" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="Y92" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y93" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>268</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>502</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>140</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>373</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -38,15 +38,16 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12397" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12947" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1683,6 +1684,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1700,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="377" x14ac:knownFonts="1">
+  <fonts count="393" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4074,8 +4084,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="651">
+  <fills count="678">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7760,8 +7871,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="650">
+  <borders count="682">
     <border>
       <left/>
       <right/>
@@ -13810,6 +14074,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14320,7 +14910,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15450,52 +16040,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="626" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="626" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="629" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="629" fontId="363" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="632" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="632" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="635" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="635" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="638" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="641" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="641" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="632" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="632" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="644" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="649" fillId="644" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="644" borderId="649" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="649" fillId="644" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="650" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="653" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="656" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="659" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="662" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="668" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="659" borderId="677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="671" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="671" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15793,7 +16431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -15876,21 +16514,24 @@
         <v>385</v>
       </c>
       <c r="Y1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>402</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -15968,21 +16609,24 @@
         <v>395</v>
       </c>
       <c r="Y2" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z2" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>162</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>420</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -16053,22 +16697,22 @@
       <c r="X3" t="s">
         <v>396</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>354</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -16136,22 +16780,22 @@
       <c r="X4" t="s">
         <v>397</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>344</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>175</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>412</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -16210,22 +16854,22 @@
       <c r="W5" t="s">
         <v>349</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>345</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>165</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>176</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>413</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16278,22 +16922,22 @@
       <c r="W6" t="s">
         <v>351</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>433</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>414</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16340,22 +16984,22 @@
       <c r="W7" t="s">
         <v>350</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>434</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>415</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -16396,22 +17040,22 @@
       <c r="W8" t="s">
         <v>352</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>166</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>416</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -16452,13 +17096,13 @@
       <c r="W9" t="s">
         <v>353</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>200</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16493,13 +17137,13 @@
       <c r="T10" t="s">
         <v>394</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>247</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>181</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -16531,13 +17175,13 @@
       <c r="R11" t="s">
         <v>238</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>248</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>249</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -16569,13 +17213,13 @@
       <c r="R12" t="s">
         <v>239</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>93</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>182</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16604,13 +17248,13 @@
       <c r="R13" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>316</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>183</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16639,13 +17283,13 @@
       <c r="R14" t="s">
         <v>240</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>94</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>184</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16671,13 +17315,13 @@
       <c r="R15" t="s">
         <v>241</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>185</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -16703,13 +17347,13 @@
       <c r="R16" t="s">
         <v>242</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>186</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16729,13 +17373,13 @@
       <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>501</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>455</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>497</v>
       </c>
     </row>
@@ -16752,10 +17396,10 @@
       <c r="K18" t="s">
         <v>451</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>96</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -16772,10 +17416,10 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>97</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16792,10 +17436,10 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>494</v>
       </c>
     </row>
@@ -16804,7 +17448,7 @@
         <v>400</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>540</v>
       </c>
       <c r="G21" t="s">
         <v>288</v>
@@ -16812,10 +17456,10 @@
       <c r="K21" t="s">
         <v>370</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>99</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>498</v>
       </c>
     </row>
@@ -16824,7 +17468,7 @@
         <v>401</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>289</v>
@@ -16832,10 +17476,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>484</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -16844,7 +17488,7 @@
         <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>311</v>
       </c>
       <c r="G23" t="s">
         <v>280</v>
@@ -16852,10 +17496,10 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>101</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16864,7 +17508,7 @@
         <v>385</v>
       </c>
       <c r="E24" t="s">
-        <v>437</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>269</v>
@@ -16872,19 +17516,19 @@
       <c r="K24" t="s">
         <v>382</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>102</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
@@ -16892,19 +17536,19 @@
       <c r="K25" t="s">
         <v>523</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>103</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
         <v>272</v>
@@ -16912,19 +17556,19 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>104</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
         <v>256</v>
@@ -16932,19 +17576,19 @@
       <c r="K27" t="s">
         <v>422</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>105</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G28" t="s">
         <v>273</v>
@@ -16952,16 +17596,16 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="G29" t="s">
         <v>274</v>
@@ -16969,106 +17613,112 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>402</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>265</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
         <v>275</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>250</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>320</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>297</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>251</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
       <c r="G38" t="s">
         <v>298</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>426</v>
       </c>
     </row>
@@ -17076,7 +17726,7 @@
       <c r="G39" t="s">
         <v>257</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>527</v>
       </c>
     </row>
@@ -17084,7 +17734,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>383</v>
       </c>
     </row>
@@ -17092,7 +17742,7 @@
       <c r="G41" t="s">
         <v>203</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>113</v>
       </c>
     </row>
@@ -17100,7 +17750,7 @@
       <c r="G42" t="s">
         <v>279</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>114</v>
       </c>
     </row>
@@ -17108,7 +17758,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -17116,7 +17766,7 @@
       <c r="G44" t="s">
         <v>291</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -17124,7 +17774,7 @@
       <c r="G45" t="s">
         <v>333</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17132,7 +17782,7 @@
       <c r="G46" t="s">
         <v>332</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>118</v>
       </c>
     </row>
@@ -17140,7 +17790,7 @@
       <c r="G47" t="s">
         <v>202</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>427</v>
       </c>
     </row>
@@ -17148,7 +17798,7 @@
       <c r="G48" t="s">
         <v>310</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17156,7 +17806,7 @@
       <c r="G49" t="s">
         <v>329</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -17164,7 +17814,7 @@
       <c r="G50" t="s">
         <v>358</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>532</v>
       </c>
     </row>
@@ -17172,7 +17822,7 @@
       <c r="G51" t="s">
         <v>292</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>119</v>
       </c>
     </row>
@@ -17180,7 +17830,7 @@
       <c r="G52" t="s">
         <v>346</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>120</v>
       </c>
     </row>
@@ -17188,7 +17838,7 @@
       <c r="G53" t="s">
         <v>321</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>121</v>
       </c>
     </row>
@@ -17196,7 +17846,7 @@
       <c r="G54" t="s">
         <v>258</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>480</v>
       </c>
     </row>
@@ -17204,7 +17854,7 @@
       <c r="G55" t="s">
         <v>282</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17212,7 +17862,7 @@
       <c r="G56" t="s">
         <v>283</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>122</v>
       </c>
     </row>
@@ -17220,7 +17870,7 @@
       <c r="G57" t="s">
         <v>284</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>336</v>
       </c>
     </row>
@@ -17228,7 +17878,7 @@
       <c r="G58" t="s">
         <v>293</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>453</v>
       </c>
     </row>
@@ -17236,7 +17886,7 @@
       <c r="G59" t="s">
         <v>302</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -17244,7 +17894,7 @@
       <c r="G60" t="s">
         <v>327</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17252,7 +17902,7 @@
       <c r="G61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>125</v>
       </c>
     </row>
@@ -17260,7 +17910,7 @@
       <c r="G62" t="s">
         <v>300</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17268,7 +17918,7 @@
       <c r="G63" t="s">
         <v>359</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17276,7 +17926,7 @@
       <c r="G64" t="s">
         <v>360</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>128</v>
       </c>
     </row>
@@ -17284,7 +17934,7 @@
       <c r="G65" t="s">
         <v>335</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17292,7 +17942,7 @@
       <c r="G66" t="s">
         <v>303</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>428</v>
       </c>
     </row>
@@ -17300,7 +17950,7 @@
       <c r="G67" t="s">
         <v>259</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -17308,7 +17958,7 @@
       <c r="G68" t="s">
         <v>528</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>205</v>
       </c>
     </row>
@@ -17316,7 +17966,7 @@
       <c r="G69" t="s">
         <v>304</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>379</v>
       </c>
     </row>
@@ -17324,7 +17974,7 @@
       <c r="G70" t="s">
         <v>398</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>429</v>
       </c>
     </row>
@@ -17332,7 +17982,7 @@
       <c r="G71" t="s">
         <v>294</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>130</v>
       </c>
     </row>
@@ -17340,7 +17990,7 @@
       <c r="G72" t="s">
         <v>399</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17348,7 +17998,7 @@
       <c r="G73" t="s">
         <v>252</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17356,7 +18006,7 @@
       <c r="G74" t="s">
         <v>508</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>133</v>
       </c>
     </row>
@@ -17364,7 +18014,7 @@
       <c r="G75" t="s">
         <v>334</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17372,7 +18022,7 @@
       <c r="G76" t="s">
         <v>270</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>189</v>
       </c>
     </row>
@@ -17380,7 +18030,7 @@
       <c r="G77" t="s">
         <v>276</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17388,7 +18038,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>454</v>
       </c>
     </row>
@@ -17396,7 +18046,7 @@
       <c r="G79" t="s">
         <v>417</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>134</v>
       </c>
     </row>
@@ -17404,7 +18054,7 @@
       <c r="G80" t="s">
         <v>322</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17412,7 +18062,7 @@
       <c r="G81" t="s">
         <v>260</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17420,7 +18070,7 @@
       <c r="G82" t="s">
         <v>271</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17428,7 +18078,7 @@
       <c r="G83" t="s">
         <v>277</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>137</v>
       </c>
     </row>
@@ -17436,7 +18086,7 @@
       <c r="G84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17444,7 +18094,7 @@
       <c r="G85" t="s">
         <v>529</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>190</v>
       </c>
     </row>
@@ -17452,7 +18102,7 @@
       <c r="G86" t="s">
         <v>261</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>481</v>
       </c>
     </row>
@@ -17460,7 +18110,7 @@
       <c r="G87" t="s">
         <v>278</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>191</v>
       </c>
     </row>
@@ -17468,7 +18118,7 @@
       <c r="G88" t="s">
         <v>262</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>442</v>
       </c>
     </row>
@@ -17476,7 +18126,7 @@
       <c r="G89" t="s">
         <v>263</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>192</v>
       </c>
     </row>
@@ -17484,7 +18134,7 @@
       <c r="G90" t="s">
         <v>295</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>193</v>
       </c>
     </row>
@@ -17492,7 +18142,7 @@
       <c r="G91" t="s">
         <v>301</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>206</v>
       </c>
     </row>
@@ -17500,7 +18150,7 @@
       <c r="G92" t="s">
         <v>285</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17508,7 +18158,7 @@
       <c r="G93" t="s">
         <v>330</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17516,7 +18166,7 @@
       <c r="G94" t="s">
         <v>267</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>430</v>
       </c>
     </row>
@@ -17524,177 +18174,177 @@
       <c r="G95" t="s">
         <v>268</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12947" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1693,6 +1693,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1706,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="393" x14ac:knownFonts="1">
+  <fonts count="425" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4185,8 +4191,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="678">
+  <fills count="732">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8024,8 +8232,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="682">
+  <borders count="746">
     <border>
       <left/>
       <right/>
@@ -14074,6 +14588,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14910,7 +16076,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16088,52 +17254,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="650" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="653" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="653" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="656" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="656" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="659" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="659" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="662" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="662" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="665" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="668" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="668" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="659" borderId="677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="677" fillId="659" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="671" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="671" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="671" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="671" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="677" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="680" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="683" fontId="395" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="686" fontId="396" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="689" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="692" fontId="399" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="705" fillId="695" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="686" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="698" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="698" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="701" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="704" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="707" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="710" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="713" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="716" borderId="733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="722" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="713" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17748,7 +19010,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>279</v>
+        <v>542</v>
       </c>
       <c r="Z42" t="s">
         <v>114</v>
@@ -17756,7 +19018,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Z43" t="s">
         <v>115</v>
@@ -17764,7 +19026,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z44" t="s">
         <v>116</v>
@@ -17772,7 +19034,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -17780,7 +19042,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z46" t="s">
         <v>118</v>
@@ -17788,7 +19050,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="Z47" t="s">
         <v>427</v>
@@ -17796,7 +19058,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="Z48" t="s">
         <v>204</v>
@@ -17804,7 +19066,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="Z49" t="s">
         <v>68</v>
@@ -17812,7 +19074,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Z50" t="s">
         <v>532</v>
@@ -17820,7 +19082,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="Z51" t="s">
         <v>119</v>
@@ -17828,7 +19090,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="Z52" t="s">
         <v>120</v>
@@ -17836,7 +19098,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Z53" t="s">
         <v>121</v>
@@ -17844,7 +19106,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="Z54" t="s">
         <v>480</v>
@@ -17852,7 +19114,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="Z55" t="s">
         <v>452</v>
@@ -17860,7 +19122,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z56" t="s">
         <v>122</v>
@@ -17868,7 +19130,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z57" t="s">
         <v>336</v>
@@ -17876,7 +19138,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>293</v>
+        <v>543</v>
       </c>
       <c r="Z58" t="s">
         <v>453</v>
@@ -17884,7 +19146,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="Z59" t="s">
         <v>123</v>
@@ -17892,7 +19154,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="Z60" t="s">
         <v>124</v>
@@ -17900,7 +19162,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z61" t="s">
         <v>125</v>
@@ -17908,7 +19170,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Z62" t="s">
         <v>126</v>
@@ -17916,7 +19178,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="Z63" t="s">
         <v>127</v>
@@ -17924,7 +19186,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="Z64" t="s">
         <v>128</v>
@@ -17932,7 +19194,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="Z65" t="s">
         <v>129</v>
@@ -17940,7 +19202,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="Z66" t="s">
         <v>428</v>
@@ -17948,7 +19210,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="Z67" t="s">
         <v>472</v>
@@ -17956,7 +19218,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>528</v>
+        <v>303</v>
       </c>
       <c r="Z68" t="s">
         <v>205</v>
@@ -17964,7 +19226,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="Z69" t="s">
         <v>379</v>
@@ -17972,7 +19234,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>398</v>
+        <v>528</v>
       </c>
       <c r="Z70" t="s">
         <v>429</v>
@@ -17980,7 +19242,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Z71" t="s">
         <v>130</v>
@@ -17988,7 +19250,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z72" t="s">
         <v>131</v>
@@ -17996,7 +19258,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="Z73" t="s">
         <v>132</v>
@@ -18004,7 +19266,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>508</v>
+        <v>399</v>
       </c>
       <c r="Z74" t="s">
         <v>133</v>
@@ -18012,7 +19274,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="Z75" t="s">
         <v>188</v>
@@ -18020,7 +19282,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>270</v>
+        <v>508</v>
       </c>
       <c r="Z76" t="s">
         <v>189</v>
@@ -18028,7 +19290,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="Z77" t="s">
         <v>441</v>
@@ -18036,7 +19298,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Z78" t="s">
         <v>454</v>
@@ -18044,7 +19306,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="Z79" t="s">
         <v>134</v>
@@ -18052,7 +19314,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="Z80" t="s">
         <v>135</v>
@@ -18060,7 +19322,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>260</v>
+        <v>417</v>
       </c>
       <c r="Z81" t="s">
         <v>136</v>
@@ -18068,7 +19330,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="Z82" t="s">
         <v>495</v>
@@ -18076,7 +19338,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="Z83" t="s">
         <v>137</v>
@@ -18084,7 +19346,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Z84" t="s">
         <v>138</v>
@@ -18092,7 +19354,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>529</v>
+        <v>277</v>
       </c>
       <c r="Z85" t="s">
         <v>190</v>
@@ -18100,7 +19362,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Z86" t="s">
         <v>481</v>
@@ -18108,7 +19370,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>278</v>
+        <v>529</v>
       </c>
       <c r="Z87" t="s">
         <v>191</v>
@@ -18116,7 +19378,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z88" t="s">
         <v>442</v>
@@ -18124,7 +19386,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Z89" t="s">
         <v>192</v>
@@ -18132,7 +19394,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="Z90" t="s">
         <v>193</v>
@@ -18140,7 +19402,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="Z91" t="s">
         <v>206</v>
@@ -18148,7 +19410,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Z92" t="s">
         <v>139</v>
@@ -18156,7 +19418,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Z93" t="s">
         <v>194</v>
@@ -18164,7 +19426,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="Z94" t="s">
         <v>430</v>
@@ -18172,18 +19434,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Z95" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>267</v>
+      </c>
       <c r="Z96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>268</v>
+      </c>
       <c r="Z97" t="s">
         <v>196</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -24,7 +24,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -38,13 +38,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14051" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14601" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1699,6 +1699,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="425" x14ac:knownFonts="1">
+  <fonts count="441" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4393,8 +4396,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="732">
+  <fills count="759">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8538,8 +8642,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="746">
+  <borders count="778">
     <border>
       <left/>
       <right/>
@@ -14588,6 +14845,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16076,7 +16659,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="454">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17350,52 +17933,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="704" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="707" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="707" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="710" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="725" fillId="710" fontId="411" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="713" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="713" fontId="412" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="716" borderId="733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="733" fillId="716" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="719" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="722" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="737" fillId="722" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="713" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="741" fillId="713" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="725" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="725" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="725" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="728" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="731" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="734" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="737" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="740" borderId="761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="743" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="749" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="740" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="752" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="752" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="755" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17693,7 +18324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -17776,24 +18407,21 @@
         <v>385</v>
       </c>
       <c r="Y1" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="AD1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -17871,24 +18499,21 @@
         <v>395</v>
       </c>
       <c r="Y2" t="s">
-        <v>541</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="AA2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AB2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AC2" t="s">
-        <v>174</v>
+        <v>420</v>
       </c>
       <c r="AD2" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -17959,22 +18584,22 @@
       <c r="X3" t="s">
         <v>396</v>
       </c>
+      <c r="Y3" t="s">
+        <v>89</v>
+      </c>
       <c r="Z3" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="AA3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AB3" t="s">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="AC3" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -18042,22 +18667,22 @@
       <c r="X4" t="s">
         <v>397</v>
       </c>
+      <c r="Y4" t="s">
+        <v>344</v>
+      </c>
       <c r="Z4" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="AA4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="AD4" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -18116,22 +18741,22 @@
       <c r="W5" t="s">
         <v>349</v>
       </c>
+      <c r="Y5" t="s">
+        <v>345</v>
+      </c>
       <c r="Z5" t="s">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="AA5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="AD5" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -18184,22 +18809,22 @@
       <c r="W6" t="s">
         <v>351</v>
       </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
       <c r="Z6" t="s">
-        <v>90</v>
+        <v>433</v>
       </c>
       <c r="AA6" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
       <c r="AB6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="AD6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -18246,22 +18871,22 @@
       <c r="W7" t="s">
         <v>350</v>
       </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>434</v>
       </c>
       <c r="AA7" t="s">
-        <v>434</v>
+        <v>172</v>
       </c>
       <c r="AB7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="AD7" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18302,22 +18927,22 @@
       <c r="W8" t="s">
         <v>352</v>
       </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
       <c r="Z8" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="AA8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
-        <v>179</v>
+        <v>416</v>
       </c>
       <c r="AD8" t="s">
-        <v>416</v>
-      </c>
-      <c r="AE8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -18358,13 +18983,13 @@
       <c r="W9" t="s">
         <v>353</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>200</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -18399,13 +19024,13 @@
       <c r="T10" t="s">
         <v>394</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>247</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>181</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -18437,13 +19062,13 @@
       <c r="R11" t="s">
         <v>238</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>248</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>249</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -18475,13 +19100,13 @@
       <c r="R12" t="s">
         <v>239</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>182</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>224</v>
       </c>
     </row>
@@ -18510,13 +19135,13 @@
       <c r="R13" t="s">
         <v>244</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>316</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>183</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -18545,13 +19170,13 @@
       <c r="R14" t="s">
         <v>240</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>94</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>184</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -18577,13 +19202,13 @@
       <c r="R15" t="s">
         <v>241</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>95</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>185</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -18601,7 +19226,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="Q16" t="s">
         <v>500</v>
@@ -18609,13 +19234,13 @@
       <c r="R16" t="s">
         <v>242</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>186</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>496</v>
       </c>
     </row>
@@ -18633,15 +19258,15 @@
         <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" t="s">
         <v>501</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>455</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>497</v>
       </c>
     </row>
@@ -18658,10 +19283,13 @@
       <c r="K18" t="s">
         <v>451</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s">
         <v>96</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -18678,10 +19306,10 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>97</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>493</v>
       </c>
     </row>
@@ -18698,10 +19326,10 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>98</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18718,10 +19346,10 @@
       <c r="K21" t="s">
         <v>370</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>99</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>498</v>
       </c>
     </row>
@@ -18738,10 +19366,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>484</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -18758,10 +19386,10 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>101</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>536</v>
       </c>
     </row>
@@ -18778,16 +19406,16 @@
       <c r="K24" t="s">
         <v>382</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>102</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>437</v>
@@ -18798,16 +19426,16 @@
       <c r="K25" t="s">
         <v>523</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>103</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>215</v>
@@ -18818,16 +19446,16 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>104</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>216</v>
@@ -18838,16 +19466,16 @@
       <c r="K27" t="s">
         <v>422</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>105</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>467</v>
@@ -18858,13 +19486,13 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="E29" t="s">
         <v>468</v>
@@ -18875,13 +19503,13 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="E30" t="s">
         <v>404</v>
@@ -18889,21 +19517,18 @@
       <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>265</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18914,7 +19539,7 @@
       <c r="G32" t="s">
         <v>275</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -18925,7 +19550,7 @@
       <c r="G33" t="s">
         <v>507</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>110</v>
       </c>
     </row>
@@ -18936,7 +19561,7 @@
       <c r="G34" t="s">
         <v>250</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>111</v>
       </c>
     </row>
@@ -18947,7 +19572,7 @@
       <c r="G35" t="s">
         <v>320</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18958,7 +19583,7 @@
       <c r="G36" t="s">
         <v>297</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -18969,7 +19594,7 @@
       <c r="G37" t="s">
         <v>251</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>328</v>
       </c>
     </row>
@@ -18980,7 +19605,7 @@
       <c r="G38" t="s">
         <v>298</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>426</v>
       </c>
     </row>
@@ -18988,7 +19613,7 @@
       <c r="G39" t="s">
         <v>257</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>527</v>
       </c>
     </row>
@@ -18996,7 +19621,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>383</v>
       </c>
     </row>
@@ -19004,7 +19629,7 @@
       <c r="G41" t="s">
         <v>203</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>113</v>
       </c>
     </row>
@@ -19012,7 +19637,7 @@
       <c r="G42" t="s">
         <v>542</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>114</v>
       </c>
     </row>
@@ -19020,7 +19645,7 @@
       <c r="G43" t="s">
         <v>279</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -19028,7 +19653,7 @@
       <c r="G44" t="s">
         <v>290</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>116</v>
       </c>
     </row>
@@ -19036,7 +19661,7 @@
       <c r="G45" t="s">
         <v>291</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>117</v>
       </c>
     </row>
@@ -19044,7 +19669,7 @@
       <c r="G46" t="s">
         <v>333</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>118</v>
       </c>
     </row>
@@ -19052,7 +19677,7 @@
       <c r="G47" t="s">
         <v>332</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>427</v>
       </c>
     </row>
@@ -19060,7 +19685,7 @@
       <c r="G48" t="s">
         <v>202</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19068,7 +19693,7 @@
       <c r="G49" t="s">
         <v>310</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -19076,7 +19701,7 @@
       <c r="G50" t="s">
         <v>329</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>532</v>
       </c>
     </row>
@@ -19084,7 +19709,7 @@
       <c r="G51" t="s">
         <v>358</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>119</v>
       </c>
     </row>
@@ -19092,7 +19717,7 @@
       <c r="G52" t="s">
         <v>292</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>120</v>
       </c>
     </row>
@@ -19100,7 +19725,7 @@
       <c r="G53" t="s">
         <v>346</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>121</v>
       </c>
     </row>
@@ -19108,7 +19733,7 @@
       <c r="G54" t="s">
         <v>321</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>480</v>
       </c>
     </row>
@@ -19116,7 +19741,7 @@
       <c r="G55" t="s">
         <v>258</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>452</v>
       </c>
     </row>
@@ -19124,7 +19749,7 @@
       <c r="G56" t="s">
         <v>282</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>122</v>
       </c>
     </row>
@@ -19132,7 +19757,7 @@
       <c r="G57" t="s">
         <v>283</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>336</v>
       </c>
     </row>
@@ -19140,7 +19765,7 @@
       <c r="G58" t="s">
         <v>543</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>453</v>
       </c>
     </row>
@@ -19148,7 +19773,7 @@
       <c r="G59" t="s">
         <v>284</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -19156,7 +19781,7 @@
       <c r="G60" t="s">
         <v>293</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>124</v>
       </c>
     </row>
@@ -19164,7 +19789,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>125</v>
       </c>
     </row>
@@ -19172,7 +19797,7 @@
       <c r="G62" t="s">
         <v>327</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>126</v>
       </c>
     </row>
@@ -19180,7 +19805,7 @@
       <c r="G63" t="s">
         <v>299</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19188,7 +19813,7 @@
       <c r="G64" t="s">
         <v>300</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>128</v>
       </c>
     </row>
@@ -19196,7 +19821,7 @@
       <c r="G65" t="s">
         <v>359</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>129</v>
       </c>
     </row>
@@ -19204,7 +19829,7 @@
       <c r="G66" t="s">
         <v>360</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>428</v>
       </c>
     </row>
@@ -19212,7 +19837,7 @@
       <c r="G67" t="s">
         <v>335</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -19220,7 +19845,7 @@
       <c r="G68" t="s">
         <v>303</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>205</v>
       </c>
     </row>
@@ -19228,7 +19853,7 @@
       <c r="G69" t="s">
         <v>259</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>379</v>
       </c>
     </row>
@@ -19236,7 +19861,7 @@
       <c r="G70" t="s">
         <v>528</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>429</v>
       </c>
     </row>
@@ -19244,7 +19869,7 @@
       <c r="G71" t="s">
         <v>304</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>130</v>
       </c>
     </row>
@@ -19252,7 +19877,7 @@
       <c r="G72" t="s">
         <v>398</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>131</v>
       </c>
     </row>
@@ -19260,7 +19885,7 @@
       <c r="G73" t="s">
         <v>294</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>132</v>
       </c>
     </row>
@@ -19268,7 +19893,7 @@
       <c r="G74" t="s">
         <v>399</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>133</v>
       </c>
     </row>
@@ -19276,7 +19901,7 @@
       <c r="G75" t="s">
         <v>252</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>188</v>
       </c>
     </row>
@@ -19284,7 +19909,7 @@
       <c r="G76" t="s">
         <v>508</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>189</v>
       </c>
     </row>
@@ -19292,7 +19917,7 @@
       <c r="G77" t="s">
         <v>334</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>441</v>
       </c>
     </row>
@@ -19300,7 +19925,7 @@
       <c r="G78" t="s">
         <v>270</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>454</v>
       </c>
     </row>
@@ -19308,7 +19933,7 @@
       <c r="G79" t="s">
         <v>276</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>134</v>
       </c>
     </row>
@@ -19316,7 +19941,7 @@
       <c r="G80" t="s">
         <v>281</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19324,7 +19949,7 @@
       <c r="G81" t="s">
         <v>417</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19332,7 +19957,7 @@
       <c r="G82" t="s">
         <v>322</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>495</v>
       </c>
     </row>
@@ -19340,7 +19965,7 @@
       <c r="G83" t="s">
         <v>260</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19348,7 +19973,7 @@
       <c r="G84" t="s">
         <v>271</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>138</v>
       </c>
     </row>
@@ -19356,7 +19981,7 @@
       <c r="G85" t="s">
         <v>277</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>190</v>
       </c>
     </row>
@@ -19364,7 +19989,7 @@
       <c r="G86" t="s">
         <v>266</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>481</v>
       </c>
     </row>
@@ -19372,7 +19997,7 @@
       <c r="G87" t="s">
         <v>529</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>191</v>
       </c>
     </row>
@@ -19380,7 +20005,7 @@
       <c r="G88" t="s">
         <v>261</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>442</v>
       </c>
     </row>
@@ -19388,7 +20013,7 @@
       <c r="G89" t="s">
         <v>278</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>192</v>
       </c>
     </row>
@@ -19396,7 +20021,7 @@
       <c r="G90" t="s">
         <v>262</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19404,7 +20029,7 @@
       <c r="G91" t="s">
         <v>263</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>206</v>
       </c>
     </row>
@@ -19412,7 +20037,7 @@
       <c r="G92" t="s">
         <v>295</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>139</v>
       </c>
     </row>
@@ -19420,7 +20045,7 @@
       <c r="G93" t="s">
         <v>301</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>194</v>
       </c>
     </row>
@@ -19428,7 +20053,7 @@
       <c r="G94" t="s">
         <v>285</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>430</v>
       </c>
     </row>
@@ -19436,7 +20061,7 @@
       <c r="G95" t="s">
         <v>330</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>431</v>
       </c>
     </row>
@@ -19444,7 +20069,7 @@
       <c r="G96" t="s">
         <v>267</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>195</v>
       </c>
     </row>
@@ -19452,167 +20077,167 @@
       <c r="G97" t="s">
         <v>268</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14601" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16261" uniqueCount="549">
   <si>
     <t>description</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1721,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="441" x14ac:knownFonts="1">
+  <fonts count="489" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4497,8 +4509,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="759">
+  <fills count="840">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8795,8 +9110,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="778">
+  <borders count="874">
     <border>
       <left/>
       <right/>
@@ -14845,6 +15619,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16659,7 +18411,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17981,52 +19733,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="731" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="734" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="734" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="737" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="737" fontId="427" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="740" borderId="761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="761" fillId="740" fontId="428" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="743" borderId="765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="765" fillId="743" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="746" fontId="431" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="749" borderId="769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="769" fillId="749" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="740" borderId="773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="740" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="752" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="752" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="752" borderId="777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="752" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="755" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="755" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="743" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="758" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="758" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="761" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="789" fillId="764" fontId="443" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="793" fillId="767" fontId="444" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="797" fillId="770" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="773" fontId="447" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="776" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="805" fillId="767" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="809" fillId="779" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="809" fillId="779" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="782" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="785" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="817" fillId="788" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="821" fillId="791" fontId="459" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="825" fillId="794" fontId="460" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="797" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="800" fontId="463" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="833" fillId="803" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="837" fillId="794" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="806" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="806" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="809" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="812" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="815" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="818" borderId="853" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="821" borderId="857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="824" borderId="861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="830" borderId="865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="821" borderId="869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="833" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="833" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="824" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="836" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="824" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="839" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18324,7 +20220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -19407,7 +21303,7 @@
         <v>382</v>
       </c>
       <c r="Y24" t="s">
-        <v>102</v>
+        <v>545</v>
       </c>
       <c r="AD24" t="s">
         <v>537</v>
@@ -19427,7 +21323,7 @@
         <v>523</v>
       </c>
       <c r="Y25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD25" t="s">
         <v>538</v>
@@ -19447,7 +21343,7 @@
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD26" t="s">
         <v>226</v>
@@ -19467,7 +21363,7 @@
         <v>422</v>
       </c>
       <c r="Y27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD27" t="s">
         <v>227</v>
@@ -19487,7 +21383,7 @@
         <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -19504,7 +21400,7 @@
         <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30">
@@ -19518,7 +21414,7 @@
         <v>207</v>
       </c>
       <c r="Y30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -19529,7 +21425,7 @@
         <v>265</v>
       </c>
       <c r="Y31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -19540,7 +21436,7 @@
         <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -19551,7 +21447,7 @@
         <v>507</v>
       </c>
       <c r="Y33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -19562,7 +21458,7 @@
         <v>250</v>
       </c>
       <c r="Y34" t="s">
-        <v>111</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35">
@@ -19573,7 +21469,7 @@
         <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -19584,7 +21480,7 @@
         <v>297</v>
       </c>
       <c r="Y36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -19595,7 +21491,7 @@
         <v>251</v>
       </c>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
@@ -19606,7 +21502,7 @@
         <v>298</v>
       </c>
       <c r="Y38" t="s">
-        <v>426</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -19614,7 +21510,7 @@
         <v>257</v>
       </c>
       <c r="Y39" t="s">
-        <v>527</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40">
@@ -19622,7 +21518,7 @@
         <v>69</v>
       </c>
       <c r="Y40" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41">
@@ -19630,7 +21526,7 @@
         <v>203</v>
       </c>
       <c r="Y41" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42">
@@ -19638,7 +21534,7 @@
         <v>542</v>
       </c>
       <c r="Y42" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
@@ -19646,7 +21542,7 @@
         <v>279</v>
       </c>
       <c r="Y43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -19654,7 +21550,7 @@
         <v>290</v>
       </c>
       <c r="Y44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -19662,7 +21558,7 @@
         <v>291</v>
       </c>
       <c r="Y45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -19670,7 +21566,7 @@
         <v>333</v>
       </c>
       <c r="Y46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -19678,7 +21574,7 @@
         <v>332</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -19686,7 +21582,7 @@
         <v>202</v>
       </c>
       <c r="Y48" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -19694,7 +21590,7 @@
         <v>310</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
@@ -19702,7 +21598,7 @@
         <v>329</v>
       </c>
       <c r="Y50" t="s">
-        <v>532</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51">
@@ -19710,7 +21606,7 @@
         <v>358</v>
       </c>
       <c r="Y51" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -19718,7 +21614,7 @@
         <v>292</v>
       </c>
       <c r="Y52" t="s">
-        <v>120</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53">
@@ -19726,7 +21622,7 @@
         <v>346</v>
       </c>
       <c r="Y53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -19734,7 +21630,7 @@
         <v>321</v>
       </c>
       <c r="Y54" t="s">
-        <v>480</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -19742,7 +21638,7 @@
         <v>258</v>
       </c>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -19750,7 +21646,7 @@
         <v>282</v>
       </c>
       <c r="Y56" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
@@ -19758,7 +21654,7 @@
         <v>283</v>
       </c>
       <c r="Y57" t="s">
-        <v>336</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
@@ -19766,7 +21662,7 @@
         <v>543</v>
       </c>
       <c r="Y58" t="s">
-        <v>453</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
@@ -19774,7 +21670,7 @@
         <v>284</v>
       </c>
       <c r="Y59" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60">
@@ -19782,7 +21678,7 @@
         <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
@@ -19790,7 +21686,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
@@ -19798,7 +21694,7 @@
         <v>327</v>
       </c>
       <c r="Y62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
@@ -19806,7 +21702,7 @@
         <v>299</v>
       </c>
       <c r="Y63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -19814,7 +21710,7 @@
         <v>300</v>
       </c>
       <c r="Y64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -19822,7 +21718,7 @@
         <v>359</v>
       </c>
       <c r="Y65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
@@ -19830,7 +21726,7 @@
         <v>360</v>
       </c>
       <c r="Y66" t="s">
-        <v>428</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
@@ -19838,7 +21734,7 @@
         <v>335</v>
       </c>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
@@ -19846,7 +21742,7 @@
         <v>303</v>
       </c>
       <c r="Y68" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69">
@@ -19854,7 +21750,7 @@
         <v>259</v>
       </c>
       <c r="Y69" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70">
@@ -19862,7 +21758,7 @@
         <v>528</v>
       </c>
       <c r="Y70" t="s">
-        <v>429</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71">
@@ -19870,7 +21766,7 @@
         <v>304</v>
       </c>
       <c r="Y71" t="s">
-        <v>130</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72">
@@ -19878,7 +21774,7 @@
         <v>398</v>
       </c>
       <c r="Y72" t="s">
-        <v>131</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73">
@@ -19886,7 +21782,7 @@
         <v>294</v>
       </c>
       <c r="Y73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -19894,7 +21790,7 @@
         <v>399</v>
       </c>
       <c r="Y74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
@@ -19902,7 +21798,7 @@
         <v>252</v>
       </c>
       <c r="Y75" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
@@ -19910,7 +21806,7 @@
         <v>508</v>
       </c>
       <c r="Y76" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
@@ -19918,7 +21814,7 @@
         <v>334</v>
       </c>
       <c r="Y77" t="s">
-        <v>441</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78">
@@ -19926,7 +21822,7 @@
         <v>270</v>
       </c>
       <c r="Y78" t="s">
-        <v>454</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79">
@@ -19934,7 +21830,7 @@
         <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>134</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80">
@@ -19942,7 +21838,7 @@
         <v>281</v>
       </c>
       <c r="Y80" t="s">
-        <v>135</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
@@ -19950,7 +21846,7 @@
         <v>417</v>
       </c>
       <c r="Y81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82">
@@ -19958,7 +21854,7 @@
         <v>322</v>
       </c>
       <c r="Y82" t="s">
-        <v>495</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -19966,7 +21862,7 @@
         <v>260</v>
       </c>
       <c r="Y83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
@@ -19974,7 +21870,7 @@
         <v>271</v>
       </c>
       <c r="Y84" t="s">
-        <v>138</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85">
@@ -19982,7 +21878,7 @@
         <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86">
@@ -19990,7 +21886,7 @@
         <v>266</v>
       </c>
       <c r="Y86" t="s">
-        <v>481</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
@@ -19998,7 +21894,7 @@
         <v>529</v>
       </c>
       <c r="Y87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88">
@@ -20006,7 +21902,7 @@
         <v>261</v>
       </c>
       <c r="Y88" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89">
@@ -20014,7 +21910,7 @@
         <v>278</v>
       </c>
       <c r="Y89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90">
@@ -20022,7 +21918,7 @@
         <v>262</v>
       </c>
       <c r="Y90" t="s">
-        <v>193</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91">
@@ -20030,7 +21926,7 @@
         <v>263</v>
       </c>
       <c r="Y91" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92">
@@ -20038,7 +21934,7 @@
         <v>295</v>
       </c>
       <c r="Y92" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93">
@@ -20046,7 +21942,7 @@
         <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>194</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94">
@@ -20054,7 +21950,7 @@
         <v>285</v>
       </c>
       <c r="Y94" t="s">
-        <v>430</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
@@ -20062,7 +21958,7 @@
         <v>330</v>
       </c>
       <c r="Y95" t="s">
-        <v>431</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
@@ -20070,7 +21966,7 @@
         <v>267</v>
       </c>
       <c r="Y96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97">
@@ -20078,166 +21974,186 @@
         <v>268</v>
       </c>
       <c r="Y97" t="s">
-        <v>196</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>197</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>509</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>143</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>432</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>156</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>39</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16261" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16816" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1714,6 +1714,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="489" x14ac:knownFonts="1">
+  <fonts count="505" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4812,8 +4818,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="840">
+  <fills count="867">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9569,8 +9676,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="874">
+  <borders count="906">
     <border>
       <left/>
       <right/>
@@ -15619,6 +15879,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18411,7 +18997,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="518">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19877,52 +20463,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="812" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="815" borderId="849" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="849" fillId="815" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="818" borderId="853" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="853" fillId="818" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="821" borderId="857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="821" fontId="476" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="824" borderId="861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="861" fillId="824" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="827" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="827" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="830" borderId="865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="865" fillId="830" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="821" borderId="869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="821" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="833" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="873" fillId="833" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="833" borderId="873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="873" fillId="833" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="824" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="836" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="836" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="824" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="839" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="839" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="842" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="845" borderId="885" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="848" borderId="889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="851" borderId="893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="857" borderId="897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="848" borderId="901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="860" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="860" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="851" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="863" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="851" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="866" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20599,7 +21233,7 @@
         <v>421</v>
       </c>
       <c r="G5" t="s">
-        <v>326</v>
+        <v>549</v>
       </c>
       <c r="H5" t="s">
         <v>448</v>
@@ -20673,7 +21307,7 @@
         <v>503</v>
       </c>
       <c r="G6" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
         <v>436</v>
@@ -20735,7 +21369,7 @@
         <v>214</v>
       </c>
       <c r="G7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="H7" t="s">
         <v>435</v>
@@ -20797,7 +21431,7 @@
         <v>308</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
         <v>318</v>
@@ -20853,7 +21487,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
         <v>319</v>
@@ -20897,7 +21531,7 @@
         <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
         <v>440</v>
@@ -20938,7 +21572,7 @@
         <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="H11" t="s">
         <v>312</v>
@@ -20976,7 +21610,7 @@
         <v>309</v>
       </c>
       <c r="G12" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H12" t="s">
         <v>313</v>
@@ -21014,7 +21648,7 @@
         <v>331</v>
       </c>
       <c r="G13" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="H13" t="s">
         <v>314</v>
@@ -21049,7 +21683,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
         <v>315</v>
@@ -21084,7 +21718,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K15" t="s">
         <v>506</v>
@@ -21116,7 +21750,7 @@
         <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
@@ -21148,7 +21782,7 @@
         <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
@@ -21174,7 +21808,7 @@
         <v>403</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>451</v>
@@ -21197,7 +21831,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -21217,7 +21851,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -21237,7 +21871,7 @@
         <v>540</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K21" t="s">
         <v>370</v>
@@ -21257,7 +21891,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K22" t="s">
         <v>469</v>
@@ -21277,7 +21911,7 @@
         <v>311</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -21297,7 +21931,7 @@
         <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K24" t="s">
         <v>382</v>
@@ -21317,7 +21951,7 @@
         <v>437</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
         <v>523</v>
@@ -21337,7 +21971,7 @@
         <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
@@ -21357,7 +21991,7 @@
         <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s">
         <v>422</v>
@@ -21377,7 +22011,7 @@
         <v>467</v>
       </c>
       <c r="G28" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -21394,7 +22028,7 @@
         <v>468</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -21411,7 +22045,7 @@
         <v>404</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s">
         <v>106</v>
@@ -21422,7 +22056,7 @@
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="Y31" t="s">
         <v>107</v>
@@ -21433,7 +22067,7 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s">
         <v>108</v>
@@ -21444,7 +22078,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>507</v>
+        <v>275</v>
       </c>
       <c r="Y33" t="s">
         <v>109</v>
@@ -21455,7 +22089,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="Y34" t="s">
         <v>546</v>
@@ -21466,7 +22100,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s">
         <v>110</v>
@@ -21477,7 +22111,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="Y36" t="s">
         <v>111</v>
@@ -21488,7 +22122,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s">
         <v>201</v>
@@ -21499,7 +22133,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="Y38" t="s">
         <v>112</v>
@@ -21507,7 +22141,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s">
         <v>328</v>
@@ -21515,7 +22149,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="Y40" t="s">
         <v>426</v>
@@ -21523,7 +22157,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
         <v>527</v>
@@ -21531,7 +22165,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>542</v>
+        <v>203</v>
       </c>
       <c r="Y42" t="s">
         <v>383</v>
@@ -21539,7 +22173,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>279</v>
+        <v>542</v>
       </c>
       <c r="Y43" t="s">
         <v>113</v>
@@ -21547,7 +22181,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Y44" t="s">
         <v>114</v>
@@ -21555,7 +22189,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y45" t="s">
         <v>115</v>
@@ -21563,7 +22197,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="Y46" t="s">
         <v>116</v>
@@ -21571,7 +22205,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y47" t="s">
         <v>117</v>
@@ -21579,7 +22213,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="Y48" t="s">
         <v>118</v>
@@ -21587,7 +22221,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s">
         <v>427</v>
@@ -21595,7 +22229,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="Y50" t="s">
         <v>204</v>
@@ -21603,7 +22237,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Y51" t="s">
         <v>68</v>
@@ -21611,7 +22245,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="Y52" t="s">
         <v>532</v>
@@ -21619,7 +22253,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="Y53" t="s">
         <v>119</v>
@@ -21627,7 +22261,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Y54" t="s">
         <v>120</v>
@@ -21635,7 +22269,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="Y55" t="s">
         <v>121</v>
@@ -21643,7 +22277,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="Y56" t="s">
         <v>480</v>
@@ -21651,7 +22285,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y57" t="s">
         <v>452</v>
@@ -21659,7 +22293,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>543</v>
+        <v>283</v>
       </c>
       <c r="Y58" t="s">
         <v>122</v>
@@ -21667,7 +22301,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>284</v>
+        <v>543</v>
       </c>
       <c r="Y59" t="s">
         <v>336</v>
@@ -21675,7 +22309,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Y60" t="s">
         <v>453</v>
@@ -21683,7 +22317,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y61" t="s">
         <v>123</v>
@@ -21691,7 +22325,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="Y62" t="s">
         <v>124</v>
@@ -21699,7 +22333,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="Y63" t="s">
         <v>125</v>
@@ -21707,7 +22341,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y64" t="s">
         <v>126</v>
@@ -21715,7 +22349,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="Y65" t="s">
         <v>127</v>
@@ -21723,7 +22357,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y66" t="s">
         <v>128</v>
@@ -21731,7 +22365,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="Y67" t="s">
         <v>129</v>
@@ -21739,7 +22373,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Y68" t="s">
         <v>428</v>
@@ -21747,7 +22381,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="Y69" t="s">
         <v>472</v>
@@ -21755,7 +22389,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>528</v>
+        <v>259</v>
       </c>
       <c r="Y70" t="s">
         <v>205</v>
@@ -21763,7 +22397,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>304</v>
+        <v>528</v>
       </c>
       <c r="Y71" t="s">
         <v>379</v>
@@ -21771,7 +22405,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="Y72" t="s">
         <v>429</v>
@@ -21779,7 +22413,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="Y73" t="s">
         <v>130</v>
@@ -21787,7 +22421,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="Y74" t="s">
         <v>131</v>
@@ -21795,7 +22429,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="Y75" t="s">
         <v>132</v>
@@ -21803,7 +22437,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>508</v>
+        <v>252</v>
       </c>
       <c r="Y76" t="s">
         <v>133</v>
@@ -21811,7 +22445,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="Y77" t="s">
         <v>188</v>
@@ -21819,7 +22453,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="Y78" t="s">
         <v>189</v>
@@ -21827,7 +22461,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Y79" t="s">
         <v>441</v>
@@ -21835,7 +22469,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Y80" t="s">
         <v>454</v>
@@ -21843,7 +22477,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>417</v>
+        <v>281</v>
       </c>
       <c r="Y81" t="s">
         <v>134</v>
@@ -21851,7 +22485,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="Y82" t="s">
         <v>135</v>
@@ -21859,7 +22493,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="Y83" t="s">
         <v>136</v>
@@ -21867,7 +22501,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Y84" t="s">
         <v>495</v>
@@ -21875,7 +22509,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Y85" t="s">
         <v>137</v>
@@ -21883,7 +22517,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Y86" t="s">
         <v>138</v>
@@ -21891,7 +22525,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>529</v>
+        <v>266</v>
       </c>
       <c r="Y87" t="s">
         <v>190</v>
@@ -21899,7 +22533,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>261</v>
+        <v>529</v>
       </c>
       <c r="Y88" t="s">
         <v>481</v>
@@ -21907,7 +22541,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="Y89" t="s">
         <v>191</v>
@@ -21915,7 +22549,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Y90" t="s">
         <v>442</v>
@@ -21923,7 +22557,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y91" t="s">
         <v>192</v>
@@ -21931,7 +22565,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="Y92" t="s">
         <v>193</v>
@@ -21939,15 +22573,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Y93" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="Y94" t="s">
         <v>206</v>
@@ -21955,7 +22589,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="Y95" t="s">
         <v>139</v>
@@ -21963,7 +22597,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y96" t="s">
         <v>194</v>
@@ -21971,13 +22605,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y97" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>268</v>
+      </c>
       <c r="Y98" t="s">
         <v>431</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16816" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17372" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1720,6 +1720,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="505" x14ac:knownFonts="1">
+  <fonts count="521" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4919,8 +4922,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="867">
+  <fills count="894">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9829,8 +9933,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="906">
+  <borders count="938">
     <border>
       <left/>
       <right/>
@@ -15879,6 +16136,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18997,7 +19580,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="534">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20511,52 +21094,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="839" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="842" borderId="881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="881" fillId="842" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="845" borderId="885" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="885" fillId="845" fontId="491" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="848" borderId="889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="889" fillId="848" fontId="492" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="851" borderId="893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="893" fillId="851" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="854" fontId="495" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="857" borderId="897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="857" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="848" borderId="901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="901" fillId="848" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="860" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="905" fillId="860" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="860" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="905" fillId="860" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="851" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="863" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="863" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="851" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="866" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="866" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="869" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="872" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="875" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="878" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="884" borderId="929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="875" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="887" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="887" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="890" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20854,7 +21485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22584,7 +23215,7 @@
         <v>301</v>
       </c>
       <c r="Y94" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95">
@@ -22592,7 +23223,7 @@
         <v>285</v>
       </c>
       <c r="Y95" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
@@ -22600,7 +23231,7 @@
         <v>330</v>
       </c>
       <c r="Y96" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
@@ -22608,7 +23239,7 @@
         <v>267</v>
       </c>
       <c r="Y97" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98">
@@ -22616,181 +23247,186 @@
         <v>268</v>
       </c>
       <c r="Y98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>502</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>140</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>373</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>547</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>155</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -14,40 +14,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17372" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17932" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1723,6 +1724,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="521" x14ac:knownFonts="1">
+  <fonts count="537" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5023,8 +5042,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="894">
+  <fills count="921">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10086,8 +10206,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="938">
+  <borders count="970">
     <border>
       <left/>
       <right/>
@@ -16136,6 +16409,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19580,7 +20179,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="534">
+  <cellXfs count="550">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21142,52 +21741,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="866" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="869" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="869" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="872" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="917" fillId="872" fontId="507" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="875" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="921" fillId="875" fontId="508" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="878" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="878" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="881" fontId="511" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="884" borderId="929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="929" fillId="884" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="875" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="933" fillId="875" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="887" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="937" fillId="887" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="887" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="937" fillId="887" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="890" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="890" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="893" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="896" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="899" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="902" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="905" borderId="957" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="911" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="902" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="914" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="914" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="917" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21485,7 +22132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -21508,81 +22155,84 @@
         <v>485</v>
       </c>
       <c r="E1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>323</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>511</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>245</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>229</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>384</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>400</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>401</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>347</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>385</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>402</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -21600,81 +22250,84 @@
         <v>486</v>
       </c>
       <c r="E2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>438</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>449</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>305</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>374</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>423</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>512</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>477</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>405</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>418</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>243</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>208</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>386</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>407</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>371</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>395</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>162</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>420</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -21691,76 +22344,76 @@
       <c r="D3" t="s">
         <v>522</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>446</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>355</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>475</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>339</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>331</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>324</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>513</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>478</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>419</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>230</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>209</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>372</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>396</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>354</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -21774,82 +22427,82 @@
       <c r="D4" t="s">
         <v>487</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>377</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>439</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>476</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>340</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>228</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>325</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>514</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>479</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>231</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>210</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>388</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>348</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>397</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>344</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>175</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>412</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
         <v>365</v>
@@ -21857,73 +22510,73 @@
       <c r="D5" t="s">
         <v>488</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>447</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>421</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>549</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>448</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>526</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>341</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>450</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>524</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>232</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>211</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>389</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>411</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>349</v>
       </c>
-      <c r="Y5" t="s">
-        <v>345</v>
-      </c>
       <c r="Z5" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA5" t="s">
         <v>165</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>176</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>413</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>366</v>
@@ -21931,1502 +22584,1510 @@
       <c r="D6" t="s">
         <v>489</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>503</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>326</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>436</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>338</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>518</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>233</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>381</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>390</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>351</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>433</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>414</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>214</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>378</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>435</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>305</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>519</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>234</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>406</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>391</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>350</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>91</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>434</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>415</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>368</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>308</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>356</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>318</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>504</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>520</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>235</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>392</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>352</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>166</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>416</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>369</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>357</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>319</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>525</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>83</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>236</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>393</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>353</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>200</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>305</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>296</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>440</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>515</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>425</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>237</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>394</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>247</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>181</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" t="s">
         <v>342</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>312</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>505</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>471</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>516</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>84</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>238</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>248</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>249</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>309</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>264</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>313</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>380</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>531</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>517</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>239</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>93</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>182</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" t="s">
         <v>331</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>253</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>314</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>424</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>85</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>316</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>183</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
-      </c>
-      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>306</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>315</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>470</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>86</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>240</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>94</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>184</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" t="s">
+        <v>511</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>254</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>506</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>499</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>241</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>185</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" t="s">
         <v>375</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>255</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>544</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>500</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>242</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>186</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
         <v>376</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>307</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>501</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>455</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>403</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>451</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>96</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>97</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>384</v>
-      </c>
-      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>286</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" t="s">
         <v>540</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>287</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>370</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>99</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>288</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>484</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" t="s">
         <v>311</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>289</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>101</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>385</v>
-      </c>
-      <c r="E24" t="s">
+        <v>347</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>280</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>382</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>545</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" t="s">
         <v>437</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>269</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>523</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>102</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>215</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>103</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>216</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>272</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>422</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>104</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>467</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>256</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>402</v>
-      </c>
-      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
         <v>468</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>273</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>402</v>
+      </c>
+      <c r="F30" t="s">
+        <v>404</v>
+      </c>
+      <c r="H30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>217</v>
       </c>
-      <c r="E30" t="s">
-        <v>404</v>
-      </c>
-      <c r="G30" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>207</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>265</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>275</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>507</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>59</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>250</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>320</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>61</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>297</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>251</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39">
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>298</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>257</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>527</v>
+      <c r="Z41" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>203</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>542</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>279</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>290</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>291</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>333</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>332</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>202</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>310</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>329</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>358</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>292</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>346</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>321</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>258</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>282</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>283</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>543</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>284</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>293</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>302</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>327</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>299</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>300</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>359</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>360</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>335</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>303</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>259</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>528</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>304</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>398</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>294</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>399</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>252</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>508</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>334</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>270</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>276</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>281</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>417</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>322</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>260</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>271</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>277</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>266</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>529</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>261</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>278</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>262</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>263</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>295</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>301</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>285</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>330</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>267</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>268</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17932" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18493" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1742,6 +1742,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1755,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="537" x14ac:knownFonts="1">
+  <fonts count="553" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5143,8 +5149,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="921">
+  <fills count="948">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10359,8 +10466,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="970">
+  <borders count="1002">
     <border>
       <left/>
       <right/>
@@ -16409,6 +16669,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20179,7 +20765,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="566">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21789,52 +22375,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="893" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="896" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="945" fillId="896" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="899" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="949" fillId="899" fontId="523" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="902" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="902" fontId="524" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="905" borderId="957" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="957" fillId="905" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="908" fontId="527" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="911" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="961" fillId="911" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="902" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="965" fillId="902" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="914" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="914" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="914" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="914" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="917" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="917" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="920" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="923" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="926" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="929" borderId="985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="932" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="938" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="929" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="941" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="941" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="944" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23089,7 +23723,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -23112,7 +23746,7 @@
         <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -23132,7 +23766,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>286</v>
@@ -23152,13 +23786,13 @@
         <v>384</v>
       </c>
       <c r="F21" t="s">
-        <v>540</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>287</v>
       </c>
       <c r="L21" t="s">
-        <v>370</v>
+        <v>559</v>
       </c>
       <c r="Z21" t="s">
         <v>99</v>
@@ -23172,7 +23806,7 @@
         <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>540</v>
       </c>
       <c r="H22" t="s">
         <v>288</v>
@@ -23192,7 +23826,7 @@
         <v>401</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>289</v>
@@ -23212,7 +23846,7 @@
         <v>347</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>311</v>
       </c>
       <c r="H24" t="s">
         <v>280</v>
@@ -23232,7 +23866,7 @@
         <v>385</v>
       </c>
       <c r="F25" t="s">
-        <v>437</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>269</v>
@@ -23252,7 +23886,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -23272,7 +23906,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H27" t="s">
         <v>272</v>
@@ -23292,7 +23926,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>467</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
         <v>256</v>
@@ -23309,7 +23943,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
         <v>273</v>
@@ -23326,7 +23960,7 @@
         <v>402</v>
       </c>
       <c r="F30" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>274</v>
@@ -23340,7 +23974,7 @@
         <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="H31" t="s">
         <v>207</v>
@@ -23351,7 +23985,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>265</v>
@@ -23362,7 +23996,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>275</v>
@@ -23373,7 +24007,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>507</v>
@@ -23384,7 +24018,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>250</v>
@@ -23395,7 +24029,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>320</v>
@@ -23406,7 +24040,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>297</v>
@@ -23417,7 +24051,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>251</v>
@@ -23427,6 +24061,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
         <v>298</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -14,15 +14,15 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18493" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19057" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1748,6 +1748,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1770,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="553" x14ac:knownFonts="1">
+  <fonts count="569" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5250,8 +5265,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="948">
+  <fills count="975">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10619,8 +10735,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1002">
+  <borders count="1034">
     <border>
       <left/>
       <right/>
@@ -16669,6 +16938,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20765,7 +21360,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="566">
+  <cellXfs count="582">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22423,52 +23018,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="920" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="923" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="977" fillId="923" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="926" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="981" fillId="926" fontId="539" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="929" borderId="985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="985" fillId="929" fontId="540" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="932" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="989" fillId="932" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="935" fontId="543" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="938" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="993" fillId="938" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="929" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="929" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="941" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1001" fillId="941" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="941" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1001" fillId="941" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="944" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="944" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="947" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="950" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="953" borderId="1013" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="956" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="959" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="965" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="956" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="968" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="968" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="971" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22766,7 +23409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -23080,7 +23723,7 @@
         <v>340</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>561</v>
       </c>
       <c r="M4" t="s">
         <v>325</v>
@@ -23116,7 +23759,7 @@
         <v>397</v>
       </c>
       <c r="Z4" t="s">
-        <v>344</v>
+        <v>562</v>
       </c>
       <c r="AA4" t="s">
         <v>164</v>
@@ -23163,7 +23806,7 @@
         <v>341</v>
       </c>
       <c r="L5" t="s">
-        <v>450</v>
+        <v>228</v>
       </c>
       <c r="N5" t="s">
         <v>78</v>
@@ -23230,11 +23873,14 @@
       <c r="I6" t="s">
         <v>436</v>
       </c>
+      <c r="J6" t="s">
+        <v>560</v>
+      </c>
       <c r="K6" t="s">
         <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>450</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -23296,7 +23942,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>305</v>
@@ -23355,7 +24001,7 @@
         <v>318</v>
       </c>
       <c r="L8" t="s">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -23411,7 +24057,7 @@
         <v>319</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>504</v>
       </c>
       <c r="N9" t="s">
         <v>27</v>
@@ -23455,7 +24101,7 @@
         <v>440</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -23496,7 +24142,7 @@
         <v>312</v>
       </c>
       <c r="L11" t="s">
-        <v>505</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
         <v>471</v>
@@ -23534,7 +24180,7 @@
         <v>313</v>
       </c>
       <c r="L12" t="s">
-        <v>380</v>
+        <v>505</v>
       </c>
       <c r="N12" t="s">
         <v>531</v>
@@ -23572,7 +24218,7 @@
         <v>314</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="N13" t="s">
         <v>424</v>
@@ -23607,7 +24253,7 @@
         <v>315</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>470</v>
@@ -23639,7 +24285,7 @@
         <v>254</v>
       </c>
       <c r="L15" t="s">
-        <v>506</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -23671,7 +24317,7 @@
         <v>255</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="N16" t="s">
         <v>544</v>
@@ -23703,7 +24349,7 @@
         <v>307</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
         <v>32</v>
@@ -23723,13 +24369,13 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>558</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -23746,13 +24392,13 @@
         <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="Z19" t="s">
         <v>97</v>
@@ -23766,13 +24412,13 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>286</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
         <v>98</v>
@@ -23786,13 +24432,13 @@
         <v>384</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>540</v>
       </c>
       <c r="H21" t="s">
         <v>287</v>
       </c>
       <c r="L21" t="s">
-        <v>559</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s">
         <v>99</v>
@@ -23806,13 +24452,13 @@
         <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>540</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
         <v>288</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="Z22" t="s">
         <v>484</v>
@@ -23826,13 +24472,13 @@
         <v>401</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="H23" t="s">
         <v>289</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>469</v>
       </c>
       <c r="Z23" t="s">
         <v>101</v>
@@ -23846,13 +24492,13 @@
         <v>347</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
         <v>280</v>
       </c>
       <c r="L24" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s">
         <v>545</v>
@@ -23866,13 +24512,13 @@
         <v>385</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>437</v>
       </c>
       <c r="H25" t="s">
         <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>523</v>
+        <v>382</v>
       </c>
       <c r="Z25" t="s">
         <v>102</v>
@@ -23886,13 +24532,13 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="Z26" t="s">
         <v>103</v>
@@ -23906,13 +24552,13 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H27" t="s">
         <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
         <v>104</v>
@@ -23926,13 +24572,13 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="H28" t="s">
         <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="Z28" t="s">
         <v>105</v>
@@ -23943,13 +24589,13 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H29" t="s">
         <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s">
         <v>317</v>
@@ -23960,10 +24606,13 @@
         <v>402</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="H30" t="s">
         <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
       </c>
       <c r="Z30" t="s">
         <v>106</v>
@@ -23974,7 +24623,7 @@
         <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
         <v>207</v>
@@ -23985,7 +24634,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>265</v>
@@ -23996,7 +24645,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>275</v>
@@ -24007,7 +24656,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
         <v>507</v>
@@ -24018,7 +24667,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>250</v>
@@ -24029,7 +24678,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>320</v>
@@ -24040,7 +24689,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>297</v>
@@ -24051,7 +24700,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>251</v>
@@ -24061,9 +24710,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
       <c r="H39" t="s">
         <v>298</v>
       </c>
@@ -24545,186 +25191,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>195</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>502</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>557</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>140</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>141</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>432</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>547</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>156</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19057" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19621" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1770,7 +1770,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="569" x14ac:knownFonts="1">
+  <fonts count="585" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5366,8 +5366,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="975">
+  <fills count="1002">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10888,8 +10989,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1034">
+  <borders count="1066">
     <border>
       <left/>
       <right/>
@@ -16938,6 +17192,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21360,7 +21940,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="582">
+  <cellXfs count="598">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23066,52 +23646,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="947" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="950" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="950" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="953" borderId="1013" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1013" fillId="953" fontId="555" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="956" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1017" fillId="956" fontId="556" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="959" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1021" fillId="959" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="962" fontId="559" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="965" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="956" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="968" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="564" fillId="968" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="971" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="965" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1029" fillId="956" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1033" fillId="968" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1033" fillId="968" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="971" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="974" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="977" borderId="1041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="980" borderId="1045" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="983" borderId="1049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="986" borderId="1053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="992" borderId="1057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="983" borderId="1061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="995" borderId="1065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="995" borderId="1065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="998" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -39,7 +39,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19621" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20186" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1763,6 +1763,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="585" x14ac:knownFonts="1">
+  <fonts count="601" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5467,8 +5470,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1002">
+  <fills count="1029">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11142,8 +11246,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1066">
+  <borders count="1098">
     <border>
       <left/>
       <right/>
@@ -17192,6 +17449,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21940,7 +22523,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="598">
+  <cellXfs count="614">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23694,52 +24277,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="974" fontId="568" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="977" borderId="1041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1041" fillId="977" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="980" borderId="1045" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1045" fillId="980" fontId="571" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="572" fillId="983" borderId="1049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1049" fillId="983" fontId="572" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="986" borderId="1053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1053" fillId="986" fontId="573" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="989" fontId="575" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="577" fillId="992" borderId="1057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="578" fillId="983" borderId="1061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="995" borderId="1065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="995" borderId="1065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="998" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1057" fillId="992" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1061" fillId="983" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="995" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="995" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="998" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1001" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1004" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1007" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1010" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1013" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1016" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1019" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1010" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1022" borderId="1097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1022" borderId="1097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1013" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1025" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1013" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1028" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24037,7 +24668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -25742,7 +26373,7 @@
         <v>261</v>
       </c>
       <c r="Z89" t="s">
-        <v>191</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90">
@@ -25750,7 +26381,7 @@
         <v>278</v>
       </c>
       <c r="Z90" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
@@ -25758,7 +26389,7 @@
         <v>262</v>
       </c>
       <c r="Z91" t="s">
-        <v>192</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92">
@@ -25766,7 +26397,7 @@
         <v>263</v>
       </c>
       <c r="Z92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
@@ -25774,7 +26405,7 @@
         <v>295</v>
       </c>
       <c r="Z93" t="s">
-        <v>550</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94">
@@ -25782,7 +26413,7 @@
         <v>301</v>
       </c>
       <c r="Z94" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95">
@@ -25790,7 +26421,7 @@
         <v>285</v>
       </c>
       <c r="Z95" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96">
@@ -25798,7 +26429,7 @@
         <v>330</v>
       </c>
       <c r="Z96" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
@@ -25806,7 +26437,7 @@
         <v>267</v>
       </c>
       <c r="Z97" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98">
@@ -25814,201 +26445,206 @@
         <v>268</v>
       </c>
       <c r="Z98" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>563</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>431</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>502</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>140</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>373</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>547</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>155</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>161</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{4FE8B059-CDF1-CC4E-BE59-3BFD1C94FF0E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20186" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20751" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1773,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="601" x14ac:knownFonts="1">
+  <fonts count="617" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5571,8 +5571,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1029">
+  <fills count="1056">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11399,8 +11500,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1098">
+  <borders count="1130">
     <border>
       <left/>
       <right/>
@@ -17449,6 +17703,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -22523,7 +23103,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="614">
+  <cellXfs count="630">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24325,52 +24905,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1001" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="1004" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1073" fillId="1004" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="1007" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1077" fillId="1007" fontId="587" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1010" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1081" fillId="1010" fontId="588" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1013" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1085" fillId="1013" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1016" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1016" fontId="591" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="1019" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="1010" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="1022" borderId="1097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="1022" borderId="1097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="1013" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="1025" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="1013" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="1028" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1089" fillId="1019" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1093" fillId="1010" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1097" fillId="1022" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1097" fillId="1022" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1025" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1028" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1031" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1034" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1037" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1040" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1046" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1037" borderId="1125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1049" borderId="1129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1049" borderId="1129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1052" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24670,7 +25298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26657,9 +27285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="B5" pane="bottomLeft" sqref="B5"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{4FE8B059-CDF1-CC4E-BE59-3BFD1C94FF0E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -19,9 +19,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -31,24 +31,25 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20751" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21335" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1767,63 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="617" x14ac:knownFonts="1">
+  <fonts count="633" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5672,8 +5730,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1056">
+  <fills count="1083">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11653,8 +11812,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1130">
+  <borders count="1162">
     <border>
       <left/>
       <right/>
@@ -17703,6 +18015,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -23103,7 +23741,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="630">
+  <cellXfs count="646">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24953,52 +25591,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1028" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1031" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1105" fillId="1031" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="602" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1034" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1109" fillId="1034" fontId="603" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1037" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1113" fillId="1037" fontId="604" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1040" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1117" fillId="1040" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1043" fontId="607" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1046" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="1037" borderId="1125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="1049" borderId="1129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="612" fillId="1049" borderId="1129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="1052" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1121" fillId="1046" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1125" fillId="1037" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1129" fillId="1049" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1129" fillId="1049" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1052" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1055" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1058" borderId="1137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1061" borderId="1141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1064" borderId="1145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1067" borderId="1149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1070" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1073" borderId="1153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1064" borderId="1157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1076" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1076" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1079" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1082" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25296,9 +25982,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25382,21 +26068,24 @@
         <v>385</v>
       </c>
       <c r="Z1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>402</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -25432,7 +26121,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>449</v>
+        <v>569</v>
       </c>
       <c r="L2" t="s">
         <v>305</v>
@@ -25477,21 +26166,24 @@
         <v>395</v>
       </c>
       <c r="Z2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA2" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>420</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -25563,21 +26255,24 @@
         <v>396</v>
       </c>
       <c r="Z3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA3" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>163</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>354</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>175</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -25646,21 +26341,24 @@
         <v>397</v>
       </c>
       <c r="Z4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA4" t="s">
         <v>562</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>164</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>175</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>412</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -25720,21 +26418,24 @@
         <v>349</v>
       </c>
       <c r="Z5" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA5" t="s">
         <v>555</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>165</v>
       </c>
-      <c r="AB5" t="s">
-        <v>170</v>
-      </c>
       <c r="AC5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD5" t="s">
         <v>176</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>413</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -25764,7 +26465,7 @@
         <v>560</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
+        <v>570</v>
       </c>
       <c r="L6" t="s">
         <v>450</v>
@@ -25791,21 +26492,24 @@
         <v>351</v>
       </c>
       <c r="Z6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA6" t="s">
         <v>90</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>433</v>
       </c>
-      <c r="AB6" t="s">
-        <v>171</v>
-      </c>
       <c r="AC6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>414</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -25826,7 +26530,7 @@
         <v>435</v>
       </c>
       <c r="K7" t="s">
-        <v>530</v>
+        <v>338</v>
       </c>
       <c r="L7" t="s">
         <v>63</v>
@@ -25852,22 +26556,22 @@
       <c r="X7" t="s">
         <v>350</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>91</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>434</v>
       </c>
-      <c r="AB7" t="s">
-        <v>172</v>
-      </c>
       <c r="AC7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>415</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -25887,6 +26591,9 @@
       <c r="I8" t="s">
         <v>318</v>
       </c>
+      <c r="K8" t="s">
+        <v>530</v>
+      </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
@@ -25908,22 +26615,22 @@
       <c r="X8" t="s">
         <v>352</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>92</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>166</v>
       </c>
-      <c r="AB8" t="s">
-        <v>173</v>
-      </c>
       <c r="AC8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>416</v>
 